--- a/Chris Leadership.xlsx
+++ b/Chris Leadership.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josephcampodonico/Desktop/ADDM/CMPINF2100/Publish/CMPINF_2100_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D8B2BD4-06A9-9044-9BC6-D2B94ADA45C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E233FCAE-64AC-A94A-9541-6FC6BE6DCA21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{218040AA-00E5-5A46-A2FE-DC5A329066BD}"/>
+    <workbookView xWindow="0" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{218040AA-00E5-5A46-A2FE-DC5A329066BD}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Questions" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="449">
   <si>
     <t>The leader frequently shares a compelling vision that motivates the team toward a common goal.</t>
   </si>
@@ -746,7 +746,643 @@
     <t>Questions</t>
   </si>
   <si>
-    <t>Style</t>
+    <t xml:space="preserve"> Transformational Leadership</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Transactional Leadership</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Servant Leadership</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Authentic Leadership</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Situational Leadership</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Charismatic Leadership</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Democratic Leadership</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Laissez-Faire Leadership</t>
+  </si>
+  <si>
+    <t>Style_Num</t>
+  </si>
+  <si>
+    <t>Style_Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Transformational Leadership </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not frequently share a compelling vision that motivates the team toward a common goal. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not regularly outline a future direction that energizes and guides the team. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not consistently articulate a vision that excites and inspires team members. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not communicate a future outlook that provides a sense of purpose and direction for the team. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not set a clear vision that helps team members understand their role in achieving future goals. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not inspire team members to surpass their own expectations and limits. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not encourage the team to strive for results beyond their initial goals. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not empower team members to achieve at levels higher than they believed they could. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not drive team members to reach achievements that exceed their original targets. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not challenge the team to realize their full potential and go beyond perceived limitations. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not show interest in the personal and professional goals of each team member. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not make an effort to learn about the unique needs and motivations of team members. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not engage with team members to understand their personal career goals and aspirations. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not take time to connect with team members to discuss their individual interests and development needs. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not actively seek to understand what drives and satisfies each team member. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not promote an environment where team members feel free to share new ideas and solutions. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not support creative thinking and experimentation to solve problems. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not value innovative approaches or encourage team members to think outside the box. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not foster a culture where team members are motivated to explore alternative solutions to challenges. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader is not open to or actively seek creative input and suggestions from the team. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not acknowledge or appreciate the hard work and achievements of team members. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not provide recognition to team members for their contributions and successes. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not regularly celebrate individual efforts and milestones. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not show gratitude or offer praise for the accomplishments of team members. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not ensure that team members feel valued for their specific achievements and contributions. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Transactional Leadership   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not communicate specific objectives or acknowledge team members when those objectives are achieved. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not establish clear performance targets or offer recognition or rewards for meeting them. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not clearly define what is expected from the team or reward compliance with those expectations. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not outline precise goals or provide incentives for achieving those goals. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not set measurable targets or provide positive reinforcement when these targets are met. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not keep track of team performance or step in when outcomes fall short of expectations. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not regularly review team progress or take action if performance does not meet the set standards. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not closely supervise work output or address issues if team performance is lacking. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not monitor results or intervene to correct problems when necessary. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader is not vigilant about team performance and does not take corrective measures when standards are not being met. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not place a strong emphasis on getting tasks done according to set guidelines. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not prioritize the completion of tasks or ensure that team members follow standard procedures. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader is not mainly concerned with making sure tasks are completed correctly and in line with company protocols. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader’s focus is not on task execution or compliance with established methods and standards. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not emphasize meeting deadlines or following established rules and procedures. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not apply rewards to drive team motivation and performance. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not leverage incentives to encourage team members to achieve their goals. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not motivate the team by offering appropriate rewards for good performance. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not use various incentives to boost morale and drive productivity within the team. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not effectively implement reward systems to enhance team motivation. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not offer feedback to correct issues and improve performance when needed. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Servant Leadership         </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not address problems directly by providing constructive feedback to guide improvements. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not give corrective feedback to help team members adjust their approach and meet expectations. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader is hesitant to provide feedback aimed at correcting performance issues. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not regularly provide feedback to help team members improve their performance. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not put the welfare of the team before their personal gains. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader is not more concerned with the team's well-being than their own personal agenda. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not consistently place the needs of the team above their own interests. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not demonstrate a commitment to the team's welfare, even at the expense of their own preferences. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not make decisions that benefit the team as a whole rather than serving their own interests. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not show genuine interest in hearing what team members have to say. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not take time to listen carefully to the ideas and concerns raised by team members. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not value input from team members or listen attentively to their feedback. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not encourage team members to share their thoughts or listen with an open mind. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader is not receptive to the concerns and suggestions voiced by team members. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not actively support the development and growth of each team member. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not invest time and effort into helping team members grow personally and professionally. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not provide opportunities and resources for team members to enhance their skills and knowledge. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not take steps to foster the personal development of team members. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not show a commitment to the personal and career growth of their team members. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not promote teamwork or a collaborative spirit among team members. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not encourage a sense of belonging and unity within the team. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not create an environment where team members feel connected and work well together. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not build a strong team culture that values cooperation and mutual support. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not actively cultivate a collaborative and inclusive atmosphere within the team. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not trust team members to take responsibility for their tasks and make independent decisions. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not empower team members to have autonomy over their work and make choices. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not foster a sense of ownership among team members by allowing them to take initiative. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not support team members in making decisions related to their work areas. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not encourage independence by letting team members handle their tasks and decisions. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Authentic Leadership       </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not openly acknowledge their own strengths and areas for improvement. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader is not transparent about what they excel at or where they need development. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader hides their limitations and is not honest about their capabilities. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader is not candid about both their skills and their shortcomings. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not communicate openly about their own strengths as well as their weaknesses. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not provide clear explanations for the decisions they make. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not regularly communicate the reasons behind their choices and actions. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader is not transparent about decision-making processes or the information that guides them. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not ensure that team members understand the logic behind important decisions. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not consistently explain the factors influencing their decisions. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not regularly ask for input or is not open to making changes based on feedback. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not value feedback from team members or show a desire to grow from it. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not actively solicit feedback or is not receptive to suggestions for improvement. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not demonstrate a commitment to personal development by seeking feedback from others. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader is not eager to learn from team members or adapt based on their feedback. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not maintain their ethical standards, especially when faced with difficult situations. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not consistently behave according to their core values, regardless of the circumstances. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not uphold their principles, especially when it might be easier not to. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not stick to their moral beliefs, especially in challenging or stressful situations. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not demonstrate integrity by adhering to their ethical convictions, no matter the pressure. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not exemplify honesty and ethical conduct in all their actions. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not consistently act as an example of integrity for others to follow. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not serve as a model of ethical behavior for the team. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not demonstrate high ethical standards, setting a positive example for others. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader’s behavior does not reflect strong moral principles that others look up to. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Situational Leadership     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not modify their leadership approach to fit the specific needs and skills of individual team members. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not change their leadership methods according to the unique requirements and competencies of team members. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not tailor their style of leadership to align with the varying needs and capabilities of their team. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not adapt their leadership tactics based on the diverse strengths and needs of team members. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not customize their approach to leadership to suit the different skills and needs of each team member. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not adopt a more facilitative and less controlling style when working with experienced team members. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not provide guidance in a more collaborative and less prescriptive manner to seasoned team members. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not use a supportive and hands-off approach with team members who have more experience. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not adjust their leadership to be more empowering and less authoritative with experienced team members. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not shift to a more supportive role, offering less direct oversight to team members with greater experience. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not evaluate the developmental stages of team members prior to selecting their leadership strategy. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not consider the skill levels and growth stages of team members before determining how to lead them. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not gauge the progress and capabilities of team members before choosing their approach to leadership. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not review the development status of team members to tailor their leadership style accordingly. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not examine the developmental needs of each team member before deciding how to engage with them. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not adjust their leadership tactics in response to feedback and changing circumstances. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not modify their approach as needed, taking into account feedback and the dynamics of the situation. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not respond to feedback and situational changes by altering their leadership strategy. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader is not flexible in their approach, adapting based on the feedback received and the evolving context. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not continually adjust their methods according to the feedback they get and the changing conditions around them. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Charismatic Leadership     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader's presence and demeanor do not naturally draw people towards them. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader's magnetic personality does not make them a natural focal point for others. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> People are not naturally drawn to the leader because of their charming and engaging nature. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader's charismatic traits do not make them a central figure in social and professional settings. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not attract others effortlessly through their compelling and charismatic personality. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader's presentations do not consistently hold the audience's attention or influence their views. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader’s speeches are not engaging and do not effectively persuade listeners. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not have a talent for delivering talks that are both compelling and convincing. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader’s ability to captivate and sway audiences during presentations is not noteworthy. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not consistently deliver speeches that are both mesmerizing and influential. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader is not frequently sought out by team members for motivational support and encouragement. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Team members do not regularly turn to the leader for inspiration and drive. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader is not a primary source of motivation and inspiration for the team. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader’s presence does not often provide the team with the inspiration they need to succeed. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Team members do not frequently seek out the leader for encouragement and motivational support. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader is not recognized as a key influencer within the team or organization. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not hold significant sway and is not seen as a powerful figure within the organization. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader’s role is not perceived as influential and impactful within the team or company. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader is not regarded as a prominent figure of influence among team members and within the organization. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader’s influence is not evident or widely acknowledged within the team or organization. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not promote the alignment of personal values with the organization’s core principles. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not actively support team members in aligning their values with organizational goals. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not emphasize the importance of aligning personal values with those of the organization. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not guide team members to synchronize their personal beliefs with the organization’s values. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not encourage individuals to harmonize their personal values with the organizational ethos. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Democratic Leadership      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not consistently include team members in the decision-making process. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not frequently engage team members when making decisions. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not make an effort to involve team members in key decisions. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Team members are not often consulted or allowed to participate in the leader's decision-making. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not actively seek input from team members during decision-making processes. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not guarantee that every team member can express their views. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not make sure all team members are given a chance to share their opinions. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Every team member does not have the opportunity to voice their thoughts thanks to the leader’s efforts. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not promote an environment where all team members can contribute their opinions. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not actively ensure that all voices within the team are heard. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not respect or integrate a variety of viewpoints in their decision-making. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not consider or include different perspectives when making decisions. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Diverse opinions are not valued or used by the leader in the decision-making process. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not actively seek out or incorporate diverse viewpoints into decisions. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not ensure that various perspectives are factored into decision-making. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not manage team conflicts by encouraging open dialogue among members. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not resolve team disputes through open and transparent discussions. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Open discussion is not the leader's approach to handling conflicts within the team. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not use facilitative communication to address and resolve team conflicts. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not promote a culture of open discussion to resolve issues among team members. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Team members do not believe that their contributions are appreciated or influence decisions. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The input of team members is not recognized or does not make a difference in decision-making. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Team members do not perceive that their feedback is valued or affects how decisions are made. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The impact of team members' suggestions is not acknowledged or integrated into decisions. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Team members do not feel their opinions are important or contribute to decision outcomes. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Laissez-Faire Leadership  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not allow team members significant freedom in how they perform their tasks. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Team members are not granted considerable independence to manage their own work. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not provide team members with the liberty to make decisions about their work processes. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not support a high degree of self-management by team members. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Team members are not given substantial leeway to direct their own work activities. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not take a hands-off approach, letting team members handle their own assignments. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Team members are not given the responsibility to manage their tasks with minimal interference from the leader. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not refrain from direct involvement, allowing team members to oversee their own work. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not adopt a non-intrusive role, letting team members control their own work efforts. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Team members are not expected to manage their tasks independently, with little input from the leader. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not offer limited direction or intervene only when absolutely necessary. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Team members do not receive sparse guidance or little interference from the leader. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader’s role does not involve minimal oversight or intervention in team members' work. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not provide just enough guidance to get by, with infrequent involvement. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Team members do not experience low levels of guidance and intervention from the leader. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not motivate team members to make their own decisions without waiting for approval. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Team members are not supported in taking responsibility for their own decision-making. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not foster an environment where team members are empowered to decide on their own. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Team members are not encouraged to exercise their judgment and make decisions autonomously. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not promote a culture where independent decision-making by team members is valued. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not have confidence in the team's ability to reach goals without needing constant supervision. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not believe in the team's capacity to meet objectives independently, with minimal check-ins. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Team members are not trusted to accomplish their goals without the leader’s continual oversight. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not exhibit faith in the team’s ability to deliver results without frequent monitoring. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leader does not provide the team with autonomy, trusting them to achieve goals with little interference. </t>
   </si>
 </sst>
 </file>
@@ -789,7 +1425,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -800,6 +1436,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1134,1947 +1771,5013 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2862D2D-8E89-A746-B135-464547391329}">
-  <dimension ref="A1:B241"/>
+  <dimension ref="A1:O436"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7" style="1" customWidth="1"/>
-    <col min="2" max="2" width="95.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="95.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O7" s="4"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O8" s="4"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O9" s="4"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>1</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O10" s="4"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>1</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O11" s="4"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>1</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O12" s="4"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>1</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O13" s="4"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>1</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O14" s="4"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>1</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O15" s="4"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>1</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O16" s="4"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>1</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O17" s="4"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>1</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O18" s="4"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>1</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O19" s="4"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>1</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O20" s="4"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>1</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O21" s="4"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>1</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O22" s="4"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>1</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O23" s="4"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>1</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O24" s="4"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>1</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O25" s="4"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>1</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O26" s="4"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>2</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O27" s="4"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>2</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O28" s="4"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>2</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O29" s="4"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>2</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O30" s="4"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>2</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O31" s="4"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>2</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O32" s="4"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>2</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O33" s="4"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>2</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O34" s="4"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>2</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O35" s="4"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>2</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O36" s="4"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>2</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O37" s="4"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>2</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O38" s="4"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>2</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O39" s="4"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>2</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O40" s="4"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>2</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O41" s="4"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>2</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O42" s="4"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>2</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O43" s="4"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>2</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O44" s="4"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>2</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O45" s="4"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>2</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O46" s="4"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>2</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O47" s="4"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>3</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O48" s="4"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>3</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O49" s="4"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>3</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O50" s="4"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>3</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O51" s="4"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>3</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O52" s="4"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>3</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O53" s="4"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>3</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O54" s="4"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>3</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O55" s="4"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>3</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O56" s="4"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>3</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O57" s="4"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>3</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O58" s="4"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>3</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O59" s="4"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>3</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O60" s="4"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>3</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O61" s="4"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>3</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O62" s="4"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>3</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O63" s="4"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>3</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O64" s="4"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>3</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O65" s="4"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>3</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O66" s="4"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>3</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O67" s="4"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>3</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O68" s="4"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>3</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O69" s="4"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>3</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O70" s="4"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>3</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O71" s="4"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>3</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O72" s="4"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>3</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O73" s="4"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>3</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O74" s="4"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>3</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O75" s="4"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>3</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O76" s="4"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>4</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O77" s="4"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>4</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C78" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O78" s="4"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>4</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O79" s="4"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>4</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O80" s="4"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>4</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O81" s="4"/>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>4</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C82" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O82" s="4"/>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>4</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C83" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O83" s="4"/>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>4</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C84" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O84" s="4"/>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>4</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C85" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O85" s="4"/>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>4</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C86" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O86" s="4"/>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>4</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C87" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O87" s="4"/>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>4</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C88" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O88" s="4"/>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>4</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C89" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O89" s="4"/>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>4</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C90" s="3" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O90" s="4"/>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>4</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O91" s="4"/>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>4</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C92" s="3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O92" s="4"/>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>4</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C93" s="3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O93" s="4"/>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>4</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C94" s="3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O94" s="4"/>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>4</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C95" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O95" s="4"/>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>4</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C96" s="3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O96" s="4"/>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>4</v>
       </c>
       <c r="B97" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O97" s="4"/>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>4</v>
       </c>
       <c r="B98" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O98" s="4"/>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>4</v>
       </c>
       <c r="B99" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O99" s="4"/>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>4</v>
       </c>
       <c r="B100" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O100" s="4"/>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>4</v>
       </c>
       <c r="B101" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O101" s="4"/>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>5</v>
       </c>
       <c r="B102" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O102" s="4"/>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>5</v>
       </c>
       <c r="B103" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O103" s="4"/>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>5</v>
       </c>
       <c r="B104" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O104" s="4"/>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>5</v>
       </c>
       <c r="B105" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O105" s="4"/>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>5</v>
       </c>
       <c r="B106" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O106" s="4"/>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>5</v>
       </c>
       <c r="B107" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O107" s="4"/>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>5</v>
       </c>
       <c r="B108" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C108" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O108" s="4"/>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>5</v>
       </c>
       <c r="B109" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O109" s="4"/>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>5</v>
       </c>
       <c r="B110" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O110" s="4"/>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>5</v>
       </c>
       <c r="B111" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O111" s="4"/>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>5</v>
       </c>
       <c r="B112" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C112" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O112" s="4"/>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>5</v>
       </c>
       <c r="B113" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O113" s="4"/>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>5</v>
       </c>
       <c r="B114" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O114" s="4"/>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>5</v>
       </c>
       <c r="B115" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C115" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O115" s="4"/>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>5</v>
       </c>
       <c r="B116" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O116" s="4"/>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>5</v>
       </c>
       <c r="B117" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C117" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O117" s="4"/>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>5</v>
       </c>
       <c r="B118" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C118" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O118" s="4"/>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>5</v>
       </c>
       <c r="B119" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C119" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O119" s="4"/>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>5</v>
       </c>
       <c r="B120" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C120" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O120" s="4"/>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>5</v>
       </c>
       <c r="B121" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C121" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O121" s="4"/>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>5</v>
       </c>
       <c r="B122" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O122" s="4"/>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>5</v>
       </c>
       <c r="B123" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C123" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O123" s="4"/>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>5</v>
       </c>
       <c r="B124" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C124" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O124" s="4"/>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>5</v>
       </c>
       <c r="B125" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C125" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O125" s="4"/>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>5</v>
       </c>
       <c r="B126" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C126" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O126" s="4"/>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>6</v>
       </c>
       <c r="B127" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C127" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O127" s="4"/>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>6</v>
       </c>
       <c r="B128" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C128" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O128" s="4"/>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>6</v>
       </c>
       <c r="B129" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C129" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O129" s="4"/>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>6</v>
       </c>
       <c r="B130" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C130" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O130" s="4"/>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>6</v>
       </c>
       <c r="B131" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C131" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O131" s="4"/>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>6</v>
       </c>
       <c r="B132" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C132" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O132" s="4"/>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>6</v>
       </c>
       <c r="B133" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C133" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O133" s="4"/>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>6</v>
       </c>
       <c r="B134" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C134" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O134" s="4"/>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>6</v>
       </c>
       <c r="B135" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C135" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O135" s="4"/>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>6</v>
       </c>
       <c r="B136" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C136" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O136" s="4"/>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>6</v>
       </c>
       <c r="B137" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C137" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O137" s="4"/>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>6</v>
       </c>
       <c r="B138" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C138" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O138" s="4"/>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>6</v>
       </c>
       <c r="B139" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C139" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O139" s="4"/>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>6</v>
       </c>
       <c r="B140" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C140" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O140" s="4"/>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>6</v>
       </c>
       <c r="B141" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C141" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O141" s="4"/>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>6</v>
       </c>
       <c r="B142" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C142" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O142" s="4"/>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>6</v>
       </c>
       <c r="B143" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C143" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O143" s="4"/>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>6</v>
       </c>
       <c r="B144" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C144" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O144" s="4"/>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>6</v>
       </c>
       <c r="B145" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C145" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O145" s="4"/>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>6</v>
       </c>
       <c r="B146" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C146" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O146" s="4"/>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>6</v>
       </c>
       <c r="B147" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C147" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O147" s="4"/>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>6</v>
       </c>
       <c r="B148" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C148" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O148" s="4"/>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>6</v>
       </c>
       <c r="B149" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C149" s="1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O149" s="4"/>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>6</v>
       </c>
       <c r="B150" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C150" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O150" s="4"/>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>6</v>
       </c>
       <c r="B151" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C151" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O151" s="4"/>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>7</v>
       </c>
       <c r="B152" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C152" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O152" s="4"/>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>7</v>
       </c>
       <c r="B153" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C153" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O153" s="4"/>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>7</v>
       </c>
       <c r="B154" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C154" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O154" s="4"/>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>7</v>
       </c>
       <c r="B155" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C155" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O155" s="4"/>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>7</v>
       </c>
       <c r="B156" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C156" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O156" s="4"/>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>7</v>
       </c>
       <c r="B157" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C157" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O157" s="4"/>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>7</v>
       </c>
       <c r="B158" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C158" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O158" s="4"/>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>7</v>
       </c>
       <c r="B159" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C159" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O159" s="4"/>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>7</v>
       </c>
       <c r="B160" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C160" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O160" s="4"/>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>7</v>
       </c>
       <c r="B161" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C161" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O161" s="4"/>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>7</v>
       </c>
       <c r="B162" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C162" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O162" s="4"/>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>7</v>
       </c>
       <c r="B163" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C163" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O163" s="4"/>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>7</v>
       </c>
       <c r="B164" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C164" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O164" s="4"/>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>7</v>
       </c>
       <c r="B165" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C165" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O165" s="4"/>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>7</v>
       </c>
       <c r="B166" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C166" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O166" s="4"/>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>7</v>
       </c>
       <c r="B167" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C167" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O167" s="4"/>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>7</v>
       </c>
       <c r="B168" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C168" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O168" s="4"/>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>7</v>
       </c>
       <c r="B169" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C169" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O169" s="4"/>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>7</v>
       </c>
       <c r="B170" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C170" s="1" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O170" s="4"/>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>7</v>
       </c>
       <c r="B171" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C171" s="1" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O171" s="4"/>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>7</v>
       </c>
       <c r="B172" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C172" s="1" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O172" s="4"/>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>7</v>
       </c>
       <c r="B173" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C173" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O173" s="4"/>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>7</v>
       </c>
       <c r="B174" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C174" s="1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O174" s="4"/>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>7</v>
       </c>
       <c r="B175" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C175" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O175" s="4"/>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>7</v>
       </c>
       <c r="B176" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C176" s="1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O176" s="4"/>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>8</v>
       </c>
       <c r="B177" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C177" s="1" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O177" s="4"/>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>8</v>
       </c>
       <c r="B178" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C178" s="1" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O178" s="4"/>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>8</v>
       </c>
       <c r="B179" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C179" s="1" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O179" s="4"/>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>8</v>
       </c>
       <c r="B180" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C180" s="1" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O180" s="4"/>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>8</v>
       </c>
       <c r="B181" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C181" s="1" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O181" s="4"/>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>8</v>
       </c>
       <c r="B182" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C182" s="1" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O182" s="4"/>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>8</v>
       </c>
       <c r="B183" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C183" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O183" s="4"/>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>8</v>
       </c>
       <c r="B184" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C184" s="1" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O184" s="4"/>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>8</v>
       </c>
       <c r="B185" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C185" s="1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O185" s="4"/>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>8</v>
       </c>
       <c r="B186" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C186" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O186" s="4"/>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>8</v>
       </c>
       <c r="B187" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C187" s="1" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O187" s="4"/>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>8</v>
       </c>
       <c r="B188" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C188" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O188" s="4"/>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>8</v>
       </c>
       <c r="B189" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C189" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O189" s="4"/>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>8</v>
       </c>
       <c r="B190" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C190" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O190" s="4"/>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>8</v>
       </c>
       <c r="B191" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C191" s="1" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O191" s="4"/>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>8</v>
       </c>
       <c r="B192" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C192" s="1" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O192" s="4"/>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>8</v>
       </c>
       <c r="B193" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C193" s="1" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O193" s="4"/>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>8</v>
       </c>
       <c r="B194" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C194" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O194" s="4"/>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>8</v>
       </c>
       <c r="B195" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C195" s="1" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O195" s="4"/>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>8</v>
       </c>
       <c r="B196" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C196" s="1" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O196" s="4"/>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>8</v>
       </c>
       <c r="B197" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C197" s="1" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O197" s="4"/>
+    </row>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>8</v>
       </c>
       <c r="B198" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C198" s="1" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O198" s="4"/>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>8</v>
       </c>
       <c r="B199" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C199" s="1" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O199" s="4"/>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>8</v>
       </c>
       <c r="B200" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C200" s="1" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O200" s="4"/>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>8</v>
       </c>
       <c r="B201" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C201" s="1" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O201" s="4"/>
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>1</v>
       </c>
       <c r="B202" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C202" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>1</v>
       </c>
       <c r="B203" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C203" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>1</v>
       </c>
       <c r="B204" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C204" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>1</v>
       </c>
       <c r="B205" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C205" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>1</v>
       </c>
       <c r="B206" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C206" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>2</v>
       </c>
       <c r="B207" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C207" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>2</v>
       </c>
       <c r="B208" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C208" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>2</v>
       </c>
       <c r="B209" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C209" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>2</v>
       </c>
       <c r="B210" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C210" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>2</v>
       </c>
       <c r="B211" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C211" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>3</v>
       </c>
       <c r="B212" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C212" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>3</v>
       </c>
       <c r="B213" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C213" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>3</v>
       </c>
       <c r="B214" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C214" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>3</v>
       </c>
       <c r="B215" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C215" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>3</v>
       </c>
       <c r="B216" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C216" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>4</v>
       </c>
       <c r="B217" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C217" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>4</v>
       </c>
       <c r="B218" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C218" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>4</v>
       </c>
       <c r="B219" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C219" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>4</v>
       </c>
       <c r="B220" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C220" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>4</v>
       </c>
       <c r="B221" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C221" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>5</v>
       </c>
       <c r="B222" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C222" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>5</v>
       </c>
       <c r="B223" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C223" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>5</v>
       </c>
       <c r="B224" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C224" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>5</v>
       </c>
       <c r="B225" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C225" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>5</v>
       </c>
       <c r="B226" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C226" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>6</v>
       </c>
       <c r="B227" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C227" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>6</v>
       </c>
       <c r="B228" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C228" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>6</v>
       </c>
       <c r="B229" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C229" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>6</v>
       </c>
       <c r="B230" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C230" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>6</v>
       </c>
       <c r="B231" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C231" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>7</v>
       </c>
       <c r="B232" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C232" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>7</v>
       </c>
       <c r="B233" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C233" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>7</v>
       </c>
       <c r="B234" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C234" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>7</v>
       </c>
       <c r="B235" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C235" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>7</v>
       </c>
       <c r="B236" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C236" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>8</v>
       </c>
       <c r="B237" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C237" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>8</v>
       </c>
       <c r="B238" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C238" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>8</v>
       </c>
       <c r="B239" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C239" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>8</v>
       </c>
       <c r="B240" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C240" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>8</v>
       </c>
       <c r="B241" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C241" s="1" t="s">
         <v>234</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A242" s="4">
+        <v>1</v>
+      </c>
+      <c r="B242" t="s">
+        <v>246</v>
+      </c>
+      <c r="C242" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A243" s="4">
+        <v>1</v>
+      </c>
+      <c r="B243" t="s">
+        <v>246</v>
+      </c>
+      <c r="C243" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A244" s="4">
+        <v>1</v>
+      </c>
+      <c r="B244" t="s">
+        <v>246</v>
+      </c>
+      <c r="C244" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A245" s="4">
+        <v>1</v>
+      </c>
+      <c r="B245" t="s">
+        <v>246</v>
+      </c>
+      <c r="C245" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A246" s="4">
+        <v>1</v>
+      </c>
+      <c r="B246" t="s">
+        <v>246</v>
+      </c>
+      <c r="C246" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A247" s="4">
+        <v>1</v>
+      </c>
+      <c r="B247" t="s">
+        <v>246</v>
+      </c>
+      <c r="C247" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A248" s="4">
+        <v>1</v>
+      </c>
+      <c r="B248" t="s">
+        <v>246</v>
+      </c>
+      <c r="C248" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A249" s="4">
+        <v>1</v>
+      </c>
+      <c r="B249" t="s">
+        <v>246</v>
+      </c>
+      <c r="C249" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A250" s="4">
+        <v>1</v>
+      </c>
+      <c r="B250" t="s">
+        <v>246</v>
+      </c>
+      <c r="C250" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A251" s="4">
+        <v>1</v>
+      </c>
+      <c r="B251" t="s">
+        <v>246</v>
+      </c>
+      <c r="C251" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A252" s="4">
+        <v>1</v>
+      </c>
+      <c r="B252" t="s">
+        <v>246</v>
+      </c>
+      <c r="C252" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A253" s="4">
+        <v>1</v>
+      </c>
+      <c r="B253" t="s">
+        <v>246</v>
+      </c>
+      <c r="C253" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A254" s="4">
+        <v>1</v>
+      </c>
+      <c r="B254" t="s">
+        <v>246</v>
+      </c>
+      <c r="C254" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A255" s="4">
+        <v>1</v>
+      </c>
+      <c r="B255" t="s">
+        <v>246</v>
+      </c>
+      <c r="C255" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A256" s="4">
+        <v>1</v>
+      </c>
+      <c r="B256" t="s">
+        <v>246</v>
+      </c>
+      <c r="C256" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A257" s="4">
+        <v>1</v>
+      </c>
+      <c r="B257" t="s">
+        <v>246</v>
+      </c>
+      <c r="C257" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A258" s="4">
+        <v>1</v>
+      </c>
+      <c r="B258" t="s">
+        <v>246</v>
+      </c>
+      <c r="C258" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A259" s="4">
+        <v>1</v>
+      </c>
+      <c r="B259" t="s">
+        <v>246</v>
+      </c>
+      <c r="C259" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A260" s="4">
+        <v>1</v>
+      </c>
+      <c r="B260" t="s">
+        <v>246</v>
+      </c>
+      <c r="C260" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A261" s="4">
+        <v>1</v>
+      </c>
+      <c r="B261" t="s">
+        <v>246</v>
+      </c>
+      <c r="C261" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A262" s="4">
+        <v>1</v>
+      </c>
+      <c r="B262" t="s">
+        <v>246</v>
+      </c>
+      <c r="C262" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A263" s="4">
+        <v>1</v>
+      </c>
+      <c r="B263" t="s">
+        <v>246</v>
+      </c>
+      <c r="C263" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A264" s="4">
+        <v>1</v>
+      </c>
+      <c r="B264" t="s">
+        <v>246</v>
+      </c>
+      <c r="C264" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A265" s="4">
+        <v>1</v>
+      </c>
+      <c r="B265" t="s">
+        <v>246</v>
+      </c>
+      <c r="C265" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A266" s="4">
+        <v>1</v>
+      </c>
+      <c r="B266" t="s">
+        <v>246</v>
+      </c>
+      <c r="C266" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A267" s="4">
+        <v>2</v>
+      </c>
+      <c r="B267" t="s">
+        <v>272</v>
+      </c>
+      <c r="C267" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A268" s="4">
+        <v>2</v>
+      </c>
+      <c r="B268" t="s">
+        <v>272</v>
+      </c>
+      <c r="C268" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A269" s="4">
+        <v>2</v>
+      </c>
+      <c r="B269" t="s">
+        <v>272</v>
+      </c>
+      <c r="C269" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A270" s="4">
+        <v>2</v>
+      </c>
+      <c r="B270" t="s">
+        <v>272</v>
+      </c>
+      <c r="C270" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A271" s="4">
+        <v>2</v>
+      </c>
+      <c r="B271" t="s">
+        <v>272</v>
+      </c>
+      <c r="C271" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A272" s="4">
+        <v>2</v>
+      </c>
+      <c r="B272" t="s">
+        <v>272</v>
+      </c>
+      <c r="C272" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A273" s="4">
+        <v>2</v>
+      </c>
+      <c r="B273" t="s">
+        <v>272</v>
+      </c>
+      <c r="C273" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A274" s="4">
+        <v>2</v>
+      </c>
+      <c r="B274" t="s">
+        <v>272</v>
+      </c>
+      <c r="C274" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A275" s="4">
+        <v>2</v>
+      </c>
+      <c r="B275" t="s">
+        <v>272</v>
+      </c>
+      <c r="C275" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A276" s="4">
+        <v>2</v>
+      </c>
+      <c r="B276" t="s">
+        <v>272</v>
+      </c>
+      <c r="C276" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A277" s="4">
+        <v>2</v>
+      </c>
+      <c r="B277" t="s">
+        <v>272</v>
+      </c>
+      <c r="C277" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A278" s="4">
+        <v>2</v>
+      </c>
+      <c r="B278" t="s">
+        <v>272</v>
+      </c>
+      <c r="C278" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A279" s="4">
+        <v>2</v>
+      </c>
+      <c r="B279" t="s">
+        <v>272</v>
+      </c>
+      <c r="C279" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A280" s="4">
+        <v>2</v>
+      </c>
+      <c r="B280" t="s">
+        <v>272</v>
+      </c>
+      <c r="C280" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A281" s="4">
+        <v>2</v>
+      </c>
+      <c r="B281" t="s">
+        <v>272</v>
+      </c>
+      <c r="C281" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A282" s="4">
+        <v>2</v>
+      </c>
+      <c r="B282" t="s">
+        <v>272</v>
+      </c>
+      <c r="C282" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A283" s="4">
+        <v>2</v>
+      </c>
+      <c r="B283" t="s">
+        <v>272</v>
+      </c>
+      <c r="C283" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A284" s="4">
+        <v>2</v>
+      </c>
+      <c r="B284" t="s">
+        <v>272</v>
+      </c>
+      <c r="C284" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A285" s="4">
+        <v>2</v>
+      </c>
+      <c r="B285" t="s">
+        <v>272</v>
+      </c>
+      <c r="C285" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A286" s="4">
+        <v>2</v>
+      </c>
+      <c r="B286" t="s">
+        <v>272</v>
+      </c>
+      <c r="C286" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A287" s="4">
+        <v>2</v>
+      </c>
+      <c r="B287" t="s">
+        <v>272</v>
+      </c>
+      <c r="C287" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A288" s="4">
+        <v>3</v>
+      </c>
+      <c r="B288" t="s">
+        <v>294</v>
+      </c>
+      <c r="C288" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A289" s="4">
+        <v>3</v>
+      </c>
+      <c r="B289" t="s">
+        <v>294</v>
+      </c>
+      <c r="C289" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A290" s="4">
+        <v>3</v>
+      </c>
+      <c r="B290" t="s">
+        <v>294</v>
+      </c>
+      <c r="C290" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A291" s="4">
+        <v>3</v>
+      </c>
+      <c r="B291" t="s">
+        <v>294</v>
+      </c>
+      <c r="C291" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A292" s="4">
+        <v>3</v>
+      </c>
+      <c r="B292" t="s">
+        <v>294</v>
+      </c>
+      <c r="C292" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A293" s="4">
+        <v>3</v>
+      </c>
+      <c r="B293" t="s">
+        <v>294</v>
+      </c>
+      <c r="C293" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A294" s="4">
+        <v>3</v>
+      </c>
+      <c r="B294" t="s">
+        <v>294</v>
+      </c>
+      <c r="C294" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A295" s="4">
+        <v>3</v>
+      </c>
+      <c r="B295" t="s">
+        <v>294</v>
+      </c>
+      <c r="C295" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A296" s="4">
+        <v>3</v>
+      </c>
+      <c r="B296" t="s">
+        <v>294</v>
+      </c>
+      <c r="C296" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A297" s="4">
+        <v>3</v>
+      </c>
+      <c r="B297" t="s">
+        <v>294</v>
+      </c>
+      <c r="C297" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A298" s="4">
+        <v>3</v>
+      </c>
+      <c r="B298" t="s">
+        <v>294</v>
+      </c>
+      <c r="C298" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A299" s="4">
+        <v>3</v>
+      </c>
+      <c r="B299" t="s">
+        <v>294</v>
+      </c>
+      <c r="C299" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A300" s="4">
+        <v>3</v>
+      </c>
+      <c r="B300" t="s">
+        <v>294</v>
+      </c>
+      <c r="C300" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A301" s="4">
+        <v>3</v>
+      </c>
+      <c r="B301" t="s">
+        <v>294</v>
+      </c>
+      <c r="C301" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A302" s="4">
+        <v>3</v>
+      </c>
+      <c r="B302" t="s">
+        <v>294</v>
+      </c>
+      <c r="C302" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A303" s="4">
+        <v>3</v>
+      </c>
+      <c r="B303" t="s">
+        <v>294</v>
+      </c>
+      <c r="C303" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A304" s="4">
+        <v>3</v>
+      </c>
+      <c r="B304" t="s">
+        <v>294</v>
+      </c>
+      <c r="C304" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A305" s="4">
+        <v>3</v>
+      </c>
+      <c r="B305" t="s">
+        <v>294</v>
+      </c>
+      <c r="C305" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A306" s="4">
+        <v>3</v>
+      </c>
+      <c r="B306" t="s">
+        <v>294</v>
+      </c>
+      <c r="C306" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A307" s="4">
+        <v>3</v>
+      </c>
+      <c r="B307" t="s">
+        <v>294</v>
+      </c>
+      <c r="C307" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A308" s="4">
+        <v>3</v>
+      </c>
+      <c r="B308" t="s">
+        <v>294</v>
+      </c>
+      <c r="C308" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A309" s="4">
+        <v>3</v>
+      </c>
+      <c r="B309" t="s">
+        <v>294</v>
+      </c>
+      <c r="C309" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A310" s="4">
+        <v>3</v>
+      </c>
+      <c r="B310" t="s">
+        <v>294</v>
+      </c>
+      <c r="C310" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A311" s="4">
+        <v>3</v>
+      </c>
+      <c r="B311" t="s">
+        <v>294</v>
+      </c>
+      <c r="C311" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A312" s="4">
+        <v>3</v>
+      </c>
+      <c r="B312" t="s">
+        <v>294</v>
+      </c>
+      <c r="C312" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A313" s="4">
+        <v>3</v>
+      </c>
+      <c r="B313" t="s">
+        <v>294</v>
+      </c>
+      <c r="C313" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A314" s="4">
+        <v>3</v>
+      </c>
+      <c r="B314" t="s">
+        <v>294</v>
+      </c>
+      <c r="C314" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A315" s="4">
+        <v>3</v>
+      </c>
+      <c r="B315" t="s">
+        <v>294</v>
+      </c>
+      <c r="C315" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A316" s="4">
+        <v>3</v>
+      </c>
+      <c r="B316" t="s">
+        <v>294</v>
+      </c>
+      <c r="C316" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A317" s="4">
+        <v>4</v>
+      </c>
+      <c r="B317" t="s">
+        <v>324</v>
+      </c>
+      <c r="C317" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A318" s="4">
+        <v>4</v>
+      </c>
+      <c r="B318" t="s">
+        <v>324</v>
+      </c>
+      <c r="C318" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A319" s="4">
+        <v>4</v>
+      </c>
+      <c r="B319" t="s">
+        <v>324</v>
+      </c>
+      <c r="C319" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A320" s="4">
+        <v>4</v>
+      </c>
+      <c r="B320" t="s">
+        <v>324</v>
+      </c>
+      <c r="C320" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A321" s="4">
+        <v>4</v>
+      </c>
+      <c r="B321" t="s">
+        <v>324</v>
+      </c>
+      <c r="C321" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A322" s="4">
+        <v>4</v>
+      </c>
+      <c r="B322" t="s">
+        <v>324</v>
+      </c>
+      <c r="C322" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A323" s="4">
+        <v>4</v>
+      </c>
+      <c r="B323" t="s">
+        <v>324</v>
+      </c>
+      <c r="C323" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A324" s="4">
+        <v>4</v>
+      </c>
+      <c r="B324" t="s">
+        <v>324</v>
+      </c>
+      <c r="C324" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A325" s="4">
+        <v>4</v>
+      </c>
+      <c r="B325" t="s">
+        <v>324</v>
+      </c>
+      <c r="C325" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A326" s="4">
+        <v>4</v>
+      </c>
+      <c r="B326" t="s">
+        <v>324</v>
+      </c>
+      <c r="C326" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A327" s="4">
+        <v>4</v>
+      </c>
+      <c r="B327" t="s">
+        <v>324</v>
+      </c>
+      <c r="C327" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A328" s="4">
+        <v>4</v>
+      </c>
+      <c r="B328" t="s">
+        <v>324</v>
+      </c>
+      <c r="C328" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A329" s="4">
+        <v>4</v>
+      </c>
+      <c r="B329" t="s">
+        <v>324</v>
+      </c>
+      <c r="C329" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A330" s="4">
+        <v>4</v>
+      </c>
+      <c r="B330" t="s">
+        <v>324</v>
+      </c>
+      <c r="C330" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A331" s="4">
+        <v>4</v>
+      </c>
+      <c r="B331" t="s">
+        <v>324</v>
+      </c>
+      <c r="C331" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A332" s="4">
+        <v>4</v>
+      </c>
+      <c r="B332" t="s">
+        <v>324</v>
+      </c>
+      <c r="C332" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A333" s="4">
+        <v>4</v>
+      </c>
+      <c r="B333" t="s">
+        <v>324</v>
+      </c>
+      <c r="C333" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A334" s="4">
+        <v>4</v>
+      </c>
+      <c r="B334" t="s">
+        <v>324</v>
+      </c>
+      <c r="C334" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A335" s="4">
+        <v>4</v>
+      </c>
+      <c r="B335" t="s">
+        <v>324</v>
+      </c>
+      <c r="C335" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A336" s="4">
+        <v>4</v>
+      </c>
+      <c r="B336" t="s">
+        <v>324</v>
+      </c>
+      <c r="C336" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A337" s="4">
+        <v>4</v>
+      </c>
+      <c r="B337" t="s">
+        <v>324</v>
+      </c>
+      <c r="C337" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A338" s="4">
+        <v>4</v>
+      </c>
+      <c r="B338" t="s">
+        <v>324</v>
+      </c>
+      <c r="C338" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A339" s="4">
+        <v>4</v>
+      </c>
+      <c r="B339" t="s">
+        <v>324</v>
+      </c>
+      <c r="C339" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A340" s="4">
+        <v>4</v>
+      </c>
+      <c r="B340" t="s">
+        <v>324</v>
+      </c>
+      <c r="C340" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A341" s="4">
+        <v>4</v>
+      </c>
+      <c r="B341" t="s">
+        <v>324</v>
+      </c>
+      <c r="C341" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A342" s="4">
+        <v>5</v>
+      </c>
+      <c r="B342" t="s">
+        <v>350</v>
+      </c>
+      <c r="C342" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A343" s="4">
+        <v>5</v>
+      </c>
+      <c r="B343" t="s">
+        <v>350</v>
+      </c>
+      <c r="C343" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A344" s="4">
+        <v>5</v>
+      </c>
+      <c r="B344" t="s">
+        <v>350</v>
+      </c>
+      <c r="C344" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A345" s="4">
+        <v>5</v>
+      </c>
+      <c r="B345" t="s">
+        <v>350</v>
+      </c>
+      <c r="C345" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A346" s="4">
+        <v>5</v>
+      </c>
+      <c r="B346" t="s">
+        <v>350</v>
+      </c>
+      <c r="C346" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A347" s="4">
+        <v>5</v>
+      </c>
+      <c r="B347" t="s">
+        <v>350</v>
+      </c>
+      <c r="C347" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A348" s="4">
+        <v>5</v>
+      </c>
+      <c r="B348" t="s">
+        <v>350</v>
+      </c>
+      <c r="C348" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A349" s="4">
+        <v>5</v>
+      </c>
+      <c r="B349" t="s">
+        <v>350</v>
+      </c>
+      <c r="C349" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A350" s="4">
+        <v>5</v>
+      </c>
+      <c r="B350" t="s">
+        <v>350</v>
+      </c>
+      <c r="C350" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A351" s="4">
+        <v>5</v>
+      </c>
+      <c r="B351" t="s">
+        <v>350</v>
+      </c>
+      <c r="C351" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A352" s="4">
+        <v>5</v>
+      </c>
+      <c r="B352" t="s">
+        <v>350</v>
+      </c>
+      <c r="C352" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A353" s="4">
+        <v>5</v>
+      </c>
+      <c r="B353" t="s">
+        <v>350</v>
+      </c>
+      <c r="C353" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A354" s="4">
+        <v>5</v>
+      </c>
+      <c r="B354" t="s">
+        <v>350</v>
+      </c>
+      <c r="C354" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A355" s="4">
+        <v>5</v>
+      </c>
+      <c r="B355" t="s">
+        <v>350</v>
+      </c>
+      <c r="C355" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A356" s="4">
+        <v>5</v>
+      </c>
+      <c r="B356" t="s">
+        <v>350</v>
+      </c>
+      <c r="C356" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A357" s="4">
+        <v>5</v>
+      </c>
+      <c r="B357" t="s">
+        <v>350</v>
+      </c>
+      <c r="C357" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A358" s="4">
+        <v>5</v>
+      </c>
+      <c r="B358" t="s">
+        <v>350</v>
+      </c>
+      <c r="C358" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A359" s="4">
+        <v>5</v>
+      </c>
+      <c r="B359" t="s">
+        <v>350</v>
+      </c>
+      <c r="C359" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A360" s="4">
+        <v>5</v>
+      </c>
+      <c r="B360" t="s">
+        <v>350</v>
+      </c>
+      <c r="C360" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A361" s="4">
+        <v>5</v>
+      </c>
+      <c r="B361" t="s">
+        <v>350</v>
+      </c>
+      <c r="C361" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A362" s="4">
+        <v>6</v>
+      </c>
+      <c r="B362" t="s">
+        <v>371</v>
+      </c>
+      <c r="C362" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A363" s="4">
+        <v>6</v>
+      </c>
+      <c r="B363" t="s">
+        <v>371</v>
+      </c>
+      <c r="C363" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A364" s="4">
+        <v>6</v>
+      </c>
+      <c r="B364" t="s">
+        <v>371</v>
+      </c>
+      <c r="C364" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A365" s="4">
+        <v>6</v>
+      </c>
+      <c r="B365" t="s">
+        <v>371</v>
+      </c>
+      <c r="C365" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A366" s="4">
+        <v>6</v>
+      </c>
+      <c r="B366" t="s">
+        <v>371</v>
+      </c>
+      <c r="C366" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A367" s="4">
+        <v>6</v>
+      </c>
+      <c r="B367" t="s">
+        <v>371</v>
+      </c>
+      <c r="C367" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A368" s="4">
+        <v>6</v>
+      </c>
+      <c r="B368" t="s">
+        <v>371</v>
+      </c>
+      <c r="C368" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A369" s="4">
+        <v>6</v>
+      </c>
+      <c r="B369" t="s">
+        <v>371</v>
+      </c>
+      <c r="C369" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A370" s="4">
+        <v>6</v>
+      </c>
+      <c r="B370" t="s">
+        <v>371</v>
+      </c>
+      <c r="C370" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A371" s="4">
+        <v>6</v>
+      </c>
+      <c r="B371" t="s">
+        <v>371</v>
+      </c>
+      <c r="C371" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A372" s="4">
+        <v>6</v>
+      </c>
+      <c r="B372" t="s">
+        <v>371</v>
+      </c>
+      <c r="C372" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A373" s="4">
+        <v>6</v>
+      </c>
+      <c r="B373" t="s">
+        <v>371</v>
+      </c>
+      <c r="C373" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A374" s="4">
+        <v>6</v>
+      </c>
+      <c r="B374" t="s">
+        <v>371</v>
+      </c>
+      <c r="C374" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A375" s="4">
+        <v>6</v>
+      </c>
+      <c r="B375" t="s">
+        <v>371</v>
+      </c>
+      <c r="C375" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A376" s="4">
+        <v>6</v>
+      </c>
+      <c r="B376" t="s">
+        <v>371</v>
+      </c>
+      <c r="C376" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A377" s="4">
+        <v>6</v>
+      </c>
+      <c r="B377" t="s">
+        <v>371</v>
+      </c>
+      <c r="C377" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A378" s="4">
+        <v>6</v>
+      </c>
+      <c r="B378" t="s">
+        <v>371</v>
+      </c>
+      <c r="C378" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A379" s="4">
+        <v>6</v>
+      </c>
+      <c r="B379" t="s">
+        <v>371</v>
+      </c>
+      <c r="C379" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A380" s="4">
+        <v>6</v>
+      </c>
+      <c r="B380" t="s">
+        <v>371</v>
+      </c>
+      <c r="C380" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A381" s="4">
+        <v>6</v>
+      </c>
+      <c r="B381" t="s">
+        <v>371</v>
+      </c>
+      <c r="C381" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A382" s="4">
+        <v>6</v>
+      </c>
+      <c r="B382" t="s">
+        <v>371</v>
+      </c>
+      <c r="C382" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A383" s="4">
+        <v>6</v>
+      </c>
+      <c r="B383" t="s">
+        <v>371</v>
+      </c>
+      <c r="C383" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A384" s="4">
+        <v>6</v>
+      </c>
+      <c r="B384" t="s">
+        <v>371</v>
+      </c>
+      <c r="C384" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A385" s="4">
+        <v>6</v>
+      </c>
+      <c r="B385" t="s">
+        <v>371</v>
+      </c>
+      <c r="C385" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A386" s="4">
+        <v>6</v>
+      </c>
+      <c r="B386" t="s">
+        <v>371</v>
+      </c>
+      <c r="C386" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A387" s="4">
+        <v>7</v>
+      </c>
+      <c r="B387" t="s">
+        <v>397</v>
+      </c>
+      <c r="C387" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A388" s="4">
+        <v>7</v>
+      </c>
+      <c r="B388" t="s">
+        <v>397</v>
+      </c>
+      <c r="C388" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A389" s="4">
+        <v>7</v>
+      </c>
+      <c r="B389" t="s">
+        <v>397</v>
+      </c>
+      <c r="C389" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A390" s="4">
+        <v>7</v>
+      </c>
+      <c r="B390" t="s">
+        <v>397</v>
+      </c>
+      <c r="C390" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A391" s="4">
+        <v>7</v>
+      </c>
+      <c r="B391" t="s">
+        <v>397</v>
+      </c>
+      <c r="C391" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A392" s="4">
+        <v>7</v>
+      </c>
+      <c r="B392" t="s">
+        <v>397</v>
+      </c>
+      <c r="C392" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A393" s="4">
+        <v>7</v>
+      </c>
+      <c r="B393" t="s">
+        <v>397</v>
+      </c>
+      <c r="C393" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A394" s="4">
+        <v>7</v>
+      </c>
+      <c r="B394" t="s">
+        <v>397</v>
+      </c>
+      <c r="C394" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A395" s="4">
+        <v>7</v>
+      </c>
+      <c r="B395" t="s">
+        <v>397</v>
+      </c>
+      <c r="C395" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A396" s="4">
+        <v>7</v>
+      </c>
+      <c r="B396" t="s">
+        <v>397</v>
+      </c>
+      <c r="C396" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A397" s="4">
+        <v>7</v>
+      </c>
+      <c r="B397" t="s">
+        <v>397</v>
+      </c>
+      <c r="C397" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A398" s="4">
+        <v>7</v>
+      </c>
+      <c r="B398" t="s">
+        <v>397</v>
+      </c>
+      <c r="C398" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A399" s="4">
+        <v>7</v>
+      </c>
+      <c r="B399" t="s">
+        <v>397</v>
+      </c>
+      <c r="C399" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A400" s="4">
+        <v>7</v>
+      </c>
+      <c r="B400" t="s">
+        <v>397</v>
+      </c>
+      <c r="C400" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A401" s="4">
+        <v>7</v>
+      </c>
+      <c r="B401" t="s">
+        <v>397</v>
+      </c>
+      <c r="C401" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A402" s="4">
+        <v>7</v>
+      </c>
+      <c r="B402" t="s">
+        <v>397</v>
+      </c>
+      <c r="C402" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A403" s="4">
+        <v>7</v>
+      </c>
+      <c r="B403" t="s">
+        <v>397</v>
+      </c>
+      <c r="C403" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A404" s="4">
+        <v>7</v>
+      </c>
+      <c r="B404" t="s">
+        <v>397</v>
+      </c>
+      <c r="C404" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A405" s="4">
+        <v>7</v>
+      </c>
+      <c r="B405" t="s">
+        <v>397</v>
+      </c>
+      <c r="C405" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A406" s="4">
+        <v>7</v>
+      </c>
+      <c r="B406" t="s">
+        <v>397</v>
+      </c>
+      <c r="C406" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A407" s="4">
+        <v>7</v>
+      </c>
+      <c r="B407" t="s">
+        <v>397</v>
+      </c>
+      <c r="C407" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A408" s="4">
+        <v>7</v>
+      </c>
+      <c r="B408" t="s">
+        <v>397</v>
+      </c>
+      <c r="C408" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A409" s="4">
+        <v>7</v>
+      </c>
+      <c r="B409" t="s">
+        <v>397</v>
+      </c>
+      <c r="C409" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A410" s="4">
+        <v>7</v>
+      </c>
+      <c r="B410" t="s">
+        <v>397</v>
+      </c>
+      <c r="C410" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A411" s="4">
+        <v>7</v>
+      </c>
+      <c r="B411" t="s">
+        <v>397</v>
+      </c>
+      <c r="C411" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A412" s="4">
+        <v>8</v>
+      </c>
+      <c r="B412" t="s">
+        <v>423</v>
+      </c>
+      <c r="C412" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A413" s="4">
+        <v>8</v>
+      </c>
+      <c r="B413" t="s">
+        <v>423</v>
+      </c>
+      <c r="C413" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A414" s="4">
+        <v>8</v>
+      </c>
+      <c r="B414" t="s">
+        <v>423</v>
+      </c>
+      <c r="C414" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A415" s="4">
+        <v>8</v>
+      </c>
+      <c r="B415" t="s">
+        <v>423</v>
+      </c>
+      <c r="C415" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A416" s="4">
+        <v>8</v>
+      </c>
+      <c r="B416" t="s">
+        <v>423</v>
+      </c>
+      <c r="C416" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A417" s="4">
+        <v>8</v>
+      </c>
+      <c r="B417" t="s">
+        <v>423</v>
+      </c>
+      <c r="C417" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A418" s="4">
+        <v>8</v>
+      </c>
+      <c r="B418" t="s">
+        <v>423</v>
+      </c>
+      <c r="C418" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A419" s="4">
+        <v>8</v>
+      </c>
+      <c r="B419" t="s">
+        <v>423</v>
+      </c>
+      <c r="C419" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A420" s="4">
+        <v>8</v>
+      </c>
+      <c r="B420" t="s">
+        <v>423</v>
+      </c>
+      <c r="C420" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A421" s="4">
+        <v>8</v>
+      </c>
+      <c r="B421" t="s">
+        <v>423</v>
+      </c>
+      <c r="C421" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A422" s="4">
+        <v>8</v>
+      </c>
+      <c r="B422" t="s">
+        <v>423</v>
+      </c>
+      <c r="C422" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A423" s="4">
+        <v>8</v>
+      </c>
+      <c r="B423" t="s">
+        <v>423</v>
+      </c>
+      <c r="C423" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A424" s="4">
+        <v>8</v>
+      </c>
+      <c r="B424" t="s">
+        <v>423</v>
+      </c>
+      <c r="C424" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A425" s="4">
+        <v>8</v>
+      </c>
+      <c r="B425" t="s">
+        <v>423</v>
+      </c>
+      <c r="C425" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A426" s="4">
+        <v>8</v>
+      </c>
+      <c r="B426" t="s">
+        <v>423</v>
+      </c>
+      <c r="C426" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A427" s="4">
+        <v>8</v>
+      </c>
+      <c r="B427" t="s">
+        <v>423</v>
+      </c>
+      <c r="C427" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A428" s="4">
+        <v>8</v>
+      </c>
+      <c r="B428" t="s">
+        <v>423</v>
+      </c>
+      <c r="C428" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A429" s="4">
+        <v>8</v>
+      </c>
+      <c r="B429" t="s">
+        <v>423</v>
+      </c>
+      <c r="C429" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A430" s="4">
+        <v>8</v>
+      </c>
+      <c r="B430" t="s">
+        <v>423</v>
+      </c>
+      <c r="C430" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A431" s="4">
+        <v>8</v>
+      </c>
+      <c r="B431" t="s">
+        <v>423</v>
+      </c>
+      <c r="C431" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A432" s="4">
+        <v>8</v>
+      </c>
+      <c r="B432" t="s">
+        <v>423</v>
+      </c>
+      <c r="C432" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A433" s="4">
+        <v>8</v>
+      </c>
+      <c r="B433" t="s">
+        <v>423</v>
+      </c>
+      <c r="C433" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A434" s="4">
+        <v>8</v>
+      </c>
+      <c r="B434" t="s">
+        <v>423</v>
+      </c>
+      <c r="C434" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A435" s="4">
+        <v>8</v>
+      </c>
+      <c r="B435" t="s">
+        <v>423</v>
+      </c>
+      <c r="C435" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A436" s="4">
+        <v>8</v>
+      </c>
+      <c r="B436" t="s">
+        <v>423</v>
+      </c>
+      <c r="C436" t="s">
+        <v>448</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Chris Leadership.xlsx
+++ b/Chris Leadership.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josephcampodonico/Desktop/ADDM/CMPINF2100/Publish/CMPINF_2100_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E233FCAE-64AC-A94A-9541-6FC6BE6DCA21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C66DC0-B3D4-D745-AEF1-2A2E704F03EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{218040AA-00E5-5A46-A2FE-DC5A329066BD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="452">
   <si>
     <t>The leader frequently shares a compelling vision that motivates the team toward a common goal.</t>
   </si>
@@ -1383,6 +1383,15 @@
   </si>
   <si>
     <t xml:space="preserve"> The leader does not provide the team with autonomy, trusting them to achieve goals with little interference. </t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive </t>
+  </si>
+  <si>
+    <t>Approach</t>
   </si>
 </sst>
 </file>
@@ -1771,21 +1780,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2862D2D-8E89-A746-B135-464547391329}">
-  <dimension ref="A1:O436"/>
+  <dimension ref="A1:P436"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="95.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" customWidth="1"/>
+    <col min="2" max="3" width="26.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="95.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>244</v>
       </c>
@@ -1793,305 +1802,383 @@
         <v>245</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O7" s="4"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="4"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="O8" s="4"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="4"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O9" s="4"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="4"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="O10" s="4"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="4"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O11" s="4"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="4"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O12" s="4"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="4"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O13" s="4"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="4"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O14" s="4"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="4"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O15" s="4"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="4"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O16" s="4"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="4"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O17" s="4"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="4"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O18" s="4"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="4"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="O19" s="4"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="4"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O20" s="4"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="4"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="O21" s="4"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="4"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="O22" s="4"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="4"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="O23" s="4"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="4"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O24" s="4"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="4"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>1</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O25" s="4"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="4"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>1</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O26" s="4"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="4"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>2</v>
       </c>
@@ -2099,11 +2186,14 @@
         <v>237</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O27" s="4"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="4"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>2</v>
       </c>
@@ -2111,11 +2201,14 @@
         <v>237</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O28" s="4"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="4"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>2</v>
       </c>
@@ -2123,11 +2216,14 @@
         <v>237</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O29" s="4"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="4"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>2</v>
       </c>
@@ -2135,11 +2231,14 @@
         <v>237</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O30" s="4"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="4"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>2</v>
       </c>
@@ -2147,11 +2246,14 @@
         <v>237</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O31" s="4"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="4"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>2</v>
       </c>
@@ -2159,11 +2261,14 @@
         <v>237</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="O32" s="4"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="4"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>2</v>
       </c>
@@ -2171,11 +2276,14 @@
         <v>237</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O33" s="4"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="4"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>2</v>
       </c>
@@ -2183,11 +2291,14 @@
         <v>237</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O34" s="4"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="4"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>2</v>
       </c>
@@ -2195,11 +2306,14 @@
         <v>237</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O35" s="4"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="4"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>2</v>
       </c>
@@ -2207,731 +2321,914 @@
         <v>237</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O36" s="4"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P36" s="4"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>2</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="O37" s="4"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P37" s="4"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>2</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="O38" s="4"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="4"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>2</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="O39" s="4"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="4"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>2</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="O40" s="4"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="4"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>2</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="O41" s="4"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="4"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>2</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="O42" s="4"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="4"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>2</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="O43" s="4"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="4"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>2</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O44" s="4"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="4"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>2</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O45" s="4"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="4"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>2</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O46" s="4"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="4"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>2</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="O47" s="4"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="4"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>3</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O48" s="4"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="4"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>3</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O49" s="4"/>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="4"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>3</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O50" s="4"/>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="4"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>3</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O51" s="4"/>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="4"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>3</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D52" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="O52" s="4"/>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="4"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>3</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="O53" s="4"/>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="4"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>3</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="O54" s="4"/>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="4"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>3</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="O55" s="4"/>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="4"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>3</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="O56" s="4"/>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="4"/>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>3</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="O57" s="4"/>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="4"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>3</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="O58" s="4"/>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="4"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>3</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="O59" s="4"/>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="4"/>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>3</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="O60" s="4"/>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="4"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>3</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="O61" s="4"/>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="4"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>3</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D62" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="O62" s="4"/>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="4"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>3</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D63" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="O63" s="4"/>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="4"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>3</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D64" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="O64" s="4"/>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="4"/>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>3</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D65" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="O65" s="4"/>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="4"/>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>3</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D66" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="O66" s="4"/>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="4"/>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>3</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="O67" s="4"/>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="4"/>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>3</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="O68" s="4"/>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="4"/>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>3</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="O69" s="4"/>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="4"/>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>3</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="O70" s="4"/>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="4"/>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>3</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="O71" s="4"/>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="4"/>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>3</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="O72" s="4"/>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="4"/>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>3</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="O73" s="4"/>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="4"/>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>3</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="O74" s="4"/>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="4"/>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>3</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="O75" s="4"/>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="4"/>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>3</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="O76" s="4"/>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="4"/>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>4</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C77" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D77" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="O77" s="4"/>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="4"/>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>4</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D78" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="O78" s="4"/>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P78" s="4"/>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>4</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D79" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="O79" s="4"/>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P79" s="4"/>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>4</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D80" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="O80" s="4"/>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="4"/>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>4</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D81" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="O81" s="4"/>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="4"/>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>4</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C82" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D82" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="O82" s="4"/>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="4"/>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>4</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D83" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="O83" s="4"/>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="4"/>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>4</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D84" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="O84" s="4"/>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="4"/>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>4</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C85" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D85" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="O85" s="4"/>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="4"/>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>4</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C86" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D86" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="O86" s="4"/>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="4"/>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>4</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C87" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D87" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="O87" s="4"/>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="4"/>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>4</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C88" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D88" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="O88" s="4"/>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="4"/>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>4</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C89" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D89" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="O89" s="4"/>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="4"/>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>4</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C90" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D90" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="O90" s="4"/>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="4"/>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>4</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C91" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D91" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="O91" s="4"/>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="4"/>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>4</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C92" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D92" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="O92" s="4"/>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="4"/>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>4</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C93" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D93" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O93" s="4"/>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="4"/>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>4</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C94" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D94" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="O94" s="4"/>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="4"/>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>4</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C95" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D95" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="O95" s="4"/>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="4"/>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>4</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C96" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D96" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="O96" s="4"/>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="4"/>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>4</v>
       </c>
@@ -2939,11 +3236,14 @@
         <v>239</v>
       </c>
       <c r="C97" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D97" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="O97" s="4"/>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="4"/>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>4</v>
       </c>
@@ -2951,11 +3251,14 @@
         <v>239</v>
       </c>
       <c r="C98" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D98" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="O98" s="4"/>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="4"/>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>4</v>
       </c>
@@ -2963,11 +3266,14 @@
         <v>239</v>
       </c>
       <c r="C99" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D99" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="O99" s="4"/>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="4"/>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>4</v>
       </c>
@@ -2975,11 +3281,14 @@
         <v>239</v>
       </c>
       <c r="C100" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="O100" s="4"/>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="4"/>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>4</v>
       </c>
@@ -2987,11 +3296,14 @@
         <v>239</v>
       </c>
       <c r="C101" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D101" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="O101" s="4"/>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="4"/>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>5</v>
       </c>
@@ -2999,11 +3311,14 @@
         <v>240</v>
       </c>
       <c r="C102" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D102" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="O102" s="4"/>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P102" s="4"/>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>5</v>
       </c>
@@ -3011,11 +3326,14 @@
         <v>240</v>
       </c>
       <c r="C103" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D103" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="O103" s="4"/>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P103" s="4"/>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>5</v>
       </c>
@@ -3023,11 +3341,14 @@
         <v>240</v>
       </c>
       <c r="C104" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D104" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="O104" s="4"/>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P104" s="4"/>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>5</v>
       </c>
@@ -3035,11 +3356,14 @@
         <v>240</v>
       </c>
       <c r="C105" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D105" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="O105" s="4"/>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P105" s="4"/>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>5</v>
       </c>
@@ -3047,11 +3371,14 @@
         <v>240</v>
       </c>
       <c r="C106" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D106" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="O106" s="4"/>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P106" s="4"/>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>5</v>
       </c>
@@ -3059,11 +3386,14 @@
         <v>240</v>
       </c>
       <c r="C107" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D107" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="O107" s="4"/>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P107" s="4"/>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>5</v>
       </c>
@@ -3071,11 +3401,14 @@
         <v>240</v>
       </c>
       <c r="C108" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D108" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="O108" s="4"/>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P108" s="4"/>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>5</v>
       </c>
@@ -3083,11 +3416,14 @@
         <v>240</v>
       </c>
       <c r="C109" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D109" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="O109" s="4"/>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P109" s="4"/>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>5</v>
       </c>
@@ -3095,11 +3431,14 @@
         <v>240</v>
       </c>
       <c r="C110" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D110" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="O110" s="4"/>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P110" s="4"/>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>5</v>
       </c>
@@ -3107,11 +3446,14 @@
         <v>240</v>
       </c>
       <c r="C111" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D111" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="O111" s="4"/>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P111" s="4"/>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>5</v>
       </c>
@@ -3119,11 +3461,14 @@
         <v>240</v>
       </c>
       <c r="C112" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D112" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="O112" s="4"/>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P112" s="4"/>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>5</v>
       </c>
@@ -3131,11 +3476,14 @@
         <v>240</v>
       </c>
       <c r="C113" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D113" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="O113" s="4"/>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P113" s="4"/>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>5</v>
       </c>
@@ -3143,11 +3491,14 @@
         <v>240</v>
       </c>
       <c r="C114" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D114" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="O114" s="4"/>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P114" s="4"/>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>5</v>
       </c>
@@ -3155,11 +3506,14 @@
         <v>240</v>
       </c>
       <c r="C115" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D115" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="O115" s="4"/>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P115" s="4"/>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>5</v>
       </c>
@@ -3167,11 +3521,14 @@
         <v>240</v>
       </c>
       <c r="C116" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D116" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="O116" s="4"/>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P116" s="4"/>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>5</v>
       </c>
@@ -3179,11 +3536,14 @@
         <v>240</v>
       </c>
       <c r="C117" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D117" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="O117" s="4"/>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P117" s="4"/>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>5</v>
       </c>
@@ -3191,11 +3551,14 @@
         <v>240</v>
       </c>
       <c r="C118" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D118" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="O118" s="4"/>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P118" s="4"/>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>5</v>
       </c>
@@ -3203,11 +3566,14 @@
         <v>240</v>
       </c>
       <c r="C119" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D119" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="O119" s="4"/>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P119" s="4"/>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>5</v>
       </c>
@@ -3215,11 +3581,14 @@
         <v>240</v>
       </c>
       <c r="C120" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D120" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="O120" s="4"/>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P120" s="4"/>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>5</v>
       </c>
@@ -3227,11 +3596,14 @@
         <v>240</v>
       </c>
       <c r="C121" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D121" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="O121" s="4"/>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P121" s="4"/>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>5</v>
       </c>
@@ -3239,11 +3611,14 @@
         <v>240</v>
       </c>
       <c r="C122" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D122" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="O122" s="4"/>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P122" s="4"/>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>5</v>
       </c>
@@ -3251,11 +3626,14 @@
         <v>240</v>
       </c>
       <c r="C123" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D123" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="O123" s="4"/>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P123" s="4"/>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>5</v>
       </c>
@@ -3263,11 +3641,14 @@
         <v>240</v>
       </c>
       <c r="C124" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D124" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="O124" s="4"/>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P124" s="4"/>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>5</v>
       </c>
@@ -3275,11 +3656,14 @@
         <v>240</v>
       </c>
       <c r="C125" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D125" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="O125" s="4"/>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P125" s="4"/>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>5</v>
       </c>
@@ -3287,11 +3671,14 @@
         <v>240</v>
       </c>
       <c r="C126" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D126" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="O126" s="4"/>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P126" s="4"/>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>6</v>
       </c>
@@ -3299,11 +3686,14 @@
         <v>241</v>
       </c>
       <c r="C127" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D127" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="O127" s="4"/>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P127" s="4"/>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>6</v>
       </c>
@@ -3311,11 +3701,14 @@
         <v>241</v>
       </c>
       <c r="C128" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D128" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="O128" s="4"/>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P128" s="4"/>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>6</v>
       </c>
@@ -3323,11 +3716,14 @@
         <v>241</v>
       </c>
       <c r="C129" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D129" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="O129" s="4"/>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P129" s="4"/>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>6</v>
       </c>
@@ -3335,11 +3731,14 @@
         <v>241</v>
       </c>
       <c r="C130" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D130" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="O130" s="4"/>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P130" s="4"/>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>6</v>
       </c>
@@ -3347,11 +3746,14 @@
         <v>241</v>
       </c>
       <c r="C131" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D131" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="O131" s="4"/>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P131" s="4"/>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>6</v>
       </c>
@@ -3359,11 +3761,14 @@
         <v>241</v>
       </c>
       <c r="C132" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D132" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="O132" s="4"/>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P132" s="4"/>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>6</v>
       </c>
@@ -3371,11 +3776,14 @@
         <v>241</v>
       </c>
       <c r="C133" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D133" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="O133" s="4"/>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P133" s="4"/>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>6</v>
       </c>
@@ -3383,11 +3791,14 @@
         <v>241</v>
       </c>
       <c r="C134" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D134" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="O134" s="4"/>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P134" s="4"/>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>6</v>
       </c>
@@ -3395,11 +3806,14 @@
         <v>241</v>
       </c>
       <c r="C135" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D135" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="O135" s="4"/>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P135" s="4"/>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>6</v>
       </c>
@@ -3407,11 +3821,14 @@
         <v>241</v>
       </c>
       <c r="C136" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D136" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="O136" s="4"/>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P136" s="4"/>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>6</v>
       </c>
@@ -3419,11 +3836,14 @@
         <v>241</v>
       </c>
       <c r="C137" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D137" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="O137" s="4"/>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P137" s="4"/>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>6</v>
       </c>
@@ -3431,11 +3851,14 @@
         <v>241</v>
       </c>
       <c r="C138" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D138" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="O138" s="4"/>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P138" s="4"/>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>6</v>
       </c>
@@ -3443,11 +3866,14 @@
         <v>241</v>
       </c>
       <c r="C139" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D139" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O139" s="4"/>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P139" s="4"/>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>6</v>
       </c>
@@ -3455,11 +3881,14 @@
         <v>241</v>
       </c>
       <c r="C140" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D140" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="O140" s="4"/>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P140" s="4"/>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>6</v>
       </c>
@@ -3467,11 +3896,14 @@
         <v>241</v>
       </c>
       <c r="C141" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D141" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="O141" s="4"/>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P141" s="4"/>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>6</v>
       </c>
@@ -3479,11 +3911,14 @@
         <v>241</v>
       </c>
       <c r="C142" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D142" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O142" s="4"/>
-    </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P142" s="4"/>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>6</v>
       </c>
@@ -3491,11 +3926,14 @@
         <v>241</v>
       </c>
       <c r="C143" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D143" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="O143" s="4"/>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P143" s="4"/>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>6</v>
       </c>
@@ -3503,11 +3941,14 @@
         <v>241</v>
       </c>
       <c r="C144" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D144" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="O144" s="4"/>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P144" s="4"/>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>6</v>
       </c>
@@ -3515,11 +3956,14 @@
         <v>241</v>
       </c>
       <c r="C145" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D145" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="O145" s="4"/>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P145" s="4"/>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>6</v>
       </c>
@@ -3527,11 +3971,14 @@
         <v>241</v>
       </c>
       <c r="C146" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D146" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="O146" s="4"/>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P146" s="4"/>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>6</v>
       </c>
@@ -3539,11 +3986,14 @@
         <v>241</v>
       </c>
       <c r="C147" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D147" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="O147" s="4"/>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P147" s="4"/>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>6</v>
       </c>
@@ -3551,11 +4001,14 @@
         <v>241</v>
       </c>
       <c r="C148" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D148" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="O148" s="4"/>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P148" s="4"/>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>6</v>
       </c>
@@ -3563,11 +4016,14 @@
         <v>241</v>
       </c>
       <c r="C149" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D149" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="O149" s="4"/>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P149" s="4"/>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>6</v>
       </c>
@@ -3575,11 +4031,14 @@
         <v>241</v>
       </c>
       <c r="C150" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D150" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="O150" s="4"/>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P150" s="4"/>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>6</v>
       </c>
@@ -3587,11 +4046,14 @@
         <v>241</v>
       </c>
       <c r="C151" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D151" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="O151" s="4"/>
-    </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P151" s="4"/>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>7</v>
       </c>
@@ -3599,11 +4061,14 @@
         <v>242</v>
       </c>
       <c r="C152" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D152" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="O152" s="4"/>
-    </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P152" s="4"/>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>7</v>
       </c>
@@ -3611,11 +4076,14 @@
         <v>242</v>
       </c>
       <c r="C153" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D153" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="O153" s="4"/>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P153" s="4"/>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>7</v>
       </c>
@@ -3623,11 +4091,14 @@
         <v>242</v>
       </c>
       <c r="C154" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D154" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="O154" s="4"/>
-    </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P154" s="4"/>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>7</v>
       </c>
@@ -3635,11 +4106,14 @@
         <v>242</v>
       </c>
       <c r="C155" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D155" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="O155" s="4"/>
-    </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P155" s="4"/>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>7</v>
       </c>
@@ -3647,11 +4121,14 @@
         <v>242</v>
       </c>
       <c r="C156" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D156" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="O156" s="4"/>
-    </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P156" s="4"/>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>7</v>
       </c>
@@ -3659,11 +4136,14 @@
         <v>242</v>
       </c>
       <c r="C157" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D157" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="O157" s="4"/>
-    </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P157" s="4"/>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>7</v>
       </c>
@@ -3671,11 +4151,14 @@
         <v>242</v>
       </c>
       <c r="C158" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D158" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="O158" s="4"/>
-    </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P158" s="4"/>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>7</v>
       </c>
@@ -3683,11 +4166,14 @@
         <v>242</v>
       </c>
       <c r="C159" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D159" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="O159" s="4"/>
-    </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P159" s="4"/>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>7</v>
       </c>
@@ -3695,11 +4181,14 @@
         <v>242</v>
       </c>
       <c r="C160" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D160" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="O160" s="4"/>
-    </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P160" s="4"/>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>7</v>
       </c>
@@ -3707,11 +4196,14 @@
         <v>242</v>
       </c>
       <c r="C161" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D161" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="O161" s="4"/>
-    </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P161" s="4"/>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>7</v>
       </c>
@@ -3719,11 +4211,14 @@
         <v>242</v>
       </c>
       <c r="C162" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D162" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="O162" s="4"/>
-    </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P162" s="4"/>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>7</v>
       </c>
@@ -3731,11 +4226,14 @@
         <v>242</v>
       </c>
       <c r="C163" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D163" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="O163" s="4"/>
-    </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P163" s="4"/>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>7</v>
       </c>
@@ -3743,11 +4241,14 @@
         <v>242</v>
       </c>
       <c r="C164" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D164" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="O164" s="4"/>
-    </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P164" s="4"/>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>7</v>
       </c>
@@ -3755,11 +4256,14 @@
         <v>242</v>
       </c>
       <c r="C165" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D165" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="O165" s="4"/>
-    </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P165" s="4"/>
+    </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>7</v>
       </c>
@@ -3767,11 +4271,14 @@
         <v>242</v>
       </c>
       <c r="C166" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D166" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="O166" s="4"/>
-    </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P166" s="4"/>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>7</v>
       </c>
@@ -3779,11 +4286,14 @@
         <v>242</v>
       </c>
       <c r="C167" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D167" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="O167" s="4"/>
-    </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P167" s="4"/>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>7</v>
       </c>
@@ -3791,11 +4301,14 @@
         <v>242</v>
       </c>
       <c r="C168" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D168" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="O168" s="4"/>
-    </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P168" s="4"/>
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>7</v>
       </c>
@@ -3803,11 +4316,14 @@
         <v>242</v>
       </c>
       <c r="C169" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D169" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="O169" s="4"/>
-    </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P169" s="4"/>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>7</v>
       </c>
@@ -3815,11 +4331,14 @@
         <v>242</v>
       </c>
       <c r="C170" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D170" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="O170" s="4"/>
-    </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P170" s="4"/>
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>7</v>
       </c>
@@ -3827,11 +4346,14 @@
         <v>242</v>
       </c>
       <c r="C171" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D171" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="O171" s="4"/>
-    </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P171" s="4"/>
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>7</v>
       </c>
@@ -3839,11 +4361,14 @@
         <v>242</v>
       </c>
       <c r="C172" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D172" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="O172" s="4"/>
-    </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P172" s="4"/>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>7</v>
       </c>
@@ -3851,11 +4376,14 @@
         <v>242</v>
       </c>
       <c r="C173" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D173" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="O173" s="4"/>
-    </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P173" s="4"/>
+    </row>
+    <row r="174" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>7</v>
       </c>
@@ -3863,11 +4391,14 @@
         <v>242</v>
       </c>
       <c r="C174" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D174" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="O174" s="4"/>
-    </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P174" s="4"/>
+    </row>
+    <row r="175" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>7</v>
       </c>
@@ -3875,11 +4406,14 @@
         <v>242</v>
       </c>
       <c r="C175" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D175" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="O175" s="4"/>
-    </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P175" s="4"/>
+    </row>
+    <row r="176" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>7</v>
       </c>
@@ -3887,11 +4421,14 @@
         <v>242</v>
       </c>
       <c r="C176" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D176" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="O176" s="4"/>
-    </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P176" s="4"/>
+    </row>
+    <row r="177" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>8</v>
       </c>
@@ -3899,11 +4436,14 @@
         <v>243</v>
       </c>
       <c r="C177" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D177" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="O177" s="4"/>
-    </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P177" s="4"/>
+    </row>
+    <row r="178" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>8</v>
       </c>
@@ -3911,11 +4451,14 @@
         <v>243</v>
       </c>
       <c r="C178" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D178" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="O178" s="4"/>
-    </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P178" s="4"/>
+    </row>
+    <row r="179" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>8</v>
       </c>
@@ -3923,11 +4466,14 @@
         <v>243</v>
       </c>
       <c r="C179" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D179" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="O179" s="4"/>
-    </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P179" s="4"/>
+    </row>
+    <row r="180" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>8</v>
       </c>
@@ -3935,11 +4481,14 @@
         <v>243</v>
       </c>
       <c r="C180" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D180" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="O180" s="4"/>
-    </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P180" s="4"/>
+    </row>
+    <row r="181" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>8</v>
       </c>
@@ -3947,11 +4496,14 @@
         <v>243</v>
       </c>
       <c r="C181" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D181" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="O181" s="4"/>
-    </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P181" s="4"/>
+    </row>
+    <row r="182" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>8</v>
       </c>
@@ -3959,11 +4511,14 @@
         <v>243</v>
       </c>
       <c r="C182" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D182" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="O182" s="4"/>
-    </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P182" s="4"/>
+    </row>
+    <row r="183" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>8</v>
       </c>
@@ -3971,11 +4526,14 @@
         <v>243</v>
       </c>
       <c r="C183" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D183" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="O183" s="4"/>
-    </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P183" s="4"/>
+    </row>
+    <row r="184" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>8</v>
       </c>
@@ -3983,11 +4541,14 @@
         <v>243</v>
       </c>
       <c r="C184" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D184" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="O184" s="4"/>
-    </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P184" s="4"/>
+    </row>
+    <row r="185" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>8</v>
       </c>
@@ -3995,11 +4556,14 @@
         <v>243</v>
       </c>
       <c r="C185" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D185" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="O185" s="4"/>
-    </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P185" s="4"/>
+    </row>
+    <row r="186" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>8</v>
       </c>
@@ -4007,11 +4571,14 @@
         <v>243</v>
       </c>
       <c r="C186" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D186" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="O186" s="4"/>
-    </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P186" s="4"/>
+    </row>
+    <row r="187" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>8</v>
       </c>
@@ -4019,11 +4586,14 @@
         <v>243</v>
       </c>
       <c r="C187" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D187" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="O187" s="4"/>
-    </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P187" s="4"/>
+    </row>
+    <row r="188" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>8</v>
       </c>
@@ -4031,11 +4601,14 @@
         <v>243</v>
       </c>
       <c r="C188" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D188" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="O188" s="4"/>
-    </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P188" s="4"/>
+    </row>
+    <row r="189" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>8</v>
       </c>
@@ -4043,11 +4616,14 @@
         <v>243</v>
       </c>
       <c r="C189" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D189" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="O189" s="4"/>
-    </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P189" s="4"/>
+    </row>
+    <row r="190" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>8</v>
       </c>
@@ -4055,11 +4631,14 @@
         <v>243</v>
       </c>
       <c r="C190" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D190" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="O190" s="4"/>
-    </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P190" s="4"/>
+    </row>
+    <row r="191" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>8</v>
       </c>
@@ -4067,11 +4646,14 @@
         <v>243</v>
       </c>
       <c r="C191" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D191" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="O191" s="4"/>
-    </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P191" s="4"/>
+    </row>
+    <row r="192" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>8</v>
       </c>
@@ -4079,11 +4661,14 @@
         <v>243</v>
       </c>
       <c r="C192" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D192" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="O192" s="4"/>
-    </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P192" s="4"/>
+    </row>
+    <row r="193" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>8</v>
       </c>
@@ -4091,11 +4676,14 @@
         <v>243</v>
       </c>
       <c r="C193" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D193" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="O193" s="4"/>
-    </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P193" s="4"/>
+    </row>
+    <row r="194" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>8</v>
       </c>
@@ -4103,11 +4691,14 @@
         <v>243</v>
       </c>
       <c r="C194" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D194" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="O194" s="4"/>
-    </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P194" s="4"/>
+    </row>
+    <row r="195" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>8</v>
       </c>
@@ -4115,11 +4706,14 @@
         <v>243</v>
       </c>
       <c r="C195" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D195" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="O195" s="4"/>
-    </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P195" s="4"/>
+    </row>
+    <row r="196" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>8</v>
       </c>
@@ -4127,11 +4721,14 @@
         <v>243</v>
       </c>
       <c r="C196" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D196" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="O196" s="4"/>
-    </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P196" s="4"/>
+    </row>
+    <row r="197" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>8</v>
       </c>
@@ -4139,11 +4736,14 @@
         <v>243</v>
       </c>
       <c r="C197" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D197" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="O197" s="4"/>
-    </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P197" s="4"/>
+    </row>
+    <row r="198" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>8</v>
       </c>
@@ -4151,11 +4751,14 @@
         <v>243</v>
       </c>
       <c r="C198" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D198" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="O198" s="4"/>
-    </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P198" s="4"/>
+    </row>
+    <row r="199" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>8</v>
       </c>
@@ -4163,11 +4766,14 @@
         <v>243</v>
       </c>
       <c r="C199" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D199" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="O199" s="4"/>
-    </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P199" s="4"/>
+    </row>
+    <row r="200" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>8</v>
       </c>
@@ -4175,11 +4781,14 @@
         <v>243</v>
       </c>
       <c r="C200" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D200" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="O200" s="4"/>
-    </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P200" s="4"/>
+    </row>
+    <row r="201" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>8</v>
       </c>
@@ -4187,11 +4796,14 @@
         <v>243</v>
       </c>
       <c r="C201" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D201" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="O201" s="4"/>
-    </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P201" s="4"/>
+    </row>
+    <row r="202" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>1</v>
       </c>
@@ -4199,10 +4811,13 @@
         <v>236</v>
       </c>
       <c r="C202" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D202" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>1</v>
       </c>
@@ -4210,10 +4825,13 @@
         <v>236</v>
       </c>
       <c r="C203" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D203" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>1</v>
       </c>
@@ -4221,10 +4839,13 @@
         <v>236</v>
       </c>
       <c r="C204" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D204" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>1</v>
       </c>
@@ -4232,10 +4853,13 @@
         <v>236</v>
       </c>
       <c r="C205" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D205" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>1</v>
       </c>
@@ -4243,10 +4867,13 @@
         <v>236</v>
       </c>
       <c r="C206" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D206" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>2</v>
       </c>
@@ -4254,10 +4881,13 @@
         <v>237</v>
       </c>
       <c r="C207" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D207" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>2</v>
       </c>
@@ -4265,10 +4895,13 @@
         <v>237</v>
       </c>
       <c r="C208" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D208" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>2</v>
       </c>
@@ -4276,10 +4909,13 @@
         <v>237</v>
       </c>
       <c r="C209" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D209" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>2</v>
       </c>
@@ -4287,10 +4923,13 @@
         <v>237</v>
       </c>
       <c r="C210" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D210" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>2</v>
       </c>
@@ -4298,10 +4937,13 @@
         <v>237</v>
       </c>
       <c r="C211" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D211" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>3</v>
       </c>
@@ -4309,10 +4951,13 @@
         <v>238</v>
       </c>
       <c r="C212" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D212" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>3</v>
       </c>
@@ -4320,10 +4965,13 @@
         <v>238</v>
       </c>
       <c r="C213" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D213" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>3</v>
       </c>
@@ -4331,10 +4979,13 @@
         <v>238</v>
       </c>
       <c r="C214" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D214" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>3</v>
       </c>
@@ -4342,10 +4993,13 @@
         <v>238</v>
       </c>
       <c r="C215" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D215" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>3</v>
       </c>
@@ -4353,10 +5007,13 @@
         <v>238</v>
       </c>
       <c r="C216" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D216" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>4</v>
       </c>
@@ -4364,10 +5021,13 @@
         <v>239</v>
       </c>
       <c r="C217" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D217" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>4</v>
       </c>
@@ -4375,10 +5035,13 @@
         <v>239</v>
       </c>
       <c r="C218" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D218" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>4</v>
       </c>
@@ -4386,10 +5049,13 @@
         <v>239</v>
       </c>
       <c r="C219" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D219" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>4</v>
       </c>
@@ -4397,10 +5063,13 @@
         <v>239</v>
       </c>
       <c r="C220" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D220" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>4</v>
       </c>
@@ -4408,10 +5077,13 @@
         <v>239</v>
       </c>
       <c r="C221" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D221" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>5</v>
       </c>
@@ -4419,10 +5091,13 @@
         <v>240</v>
       </c>
       <c r="C222" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D222" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>5</v>
       </c>
@@ -4430,10 +5105,13 @@
         <v>240</v>
       </c>
       <c r="C223" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D223" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>5</v>
       </c>
@@ -4441,10 +5119,13 @@
         <v>240</v>
       </c>
       <c r="C224" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D224" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>5</v>
       </c>
@@ -4452,10 +5133,13 @@
         <v>240</v>
       </c>
       <c r="C225" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D225" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>5</v>
       </c>
@@ -4463,10 +5147,13 @@
         <v>240</v>
       </c>
       <c r="C226" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D226" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>6</v>
       </c>
@@ -4474,10 +5161,13 @@
         <v>241</v>
       </c>
       <c r="C227" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D227" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>6</v>
       </c>
@@ -4485,10 +5175,13 @@
         <v>241</v>
       </c>
       <c r="C228" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D228" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>6</v>
       </c>
@@ -4496,10 +5189,13 @@
         <v>241</v>
       </c>
       <c r="C229" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D229" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>6</v>
       </c>
@@ -4507,10 +5203,13 @@
         <v>241</v>
       </c>
       <c r="C230" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D230" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>6</v>
       </c>
@@ -4518,10 +5217,13 @@
         <v>241</v>
       </c>
       <c r="C231" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D231" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>7</v>
       </c>
@@ -4529,10 +5231,13 @@
         <v>242</v>
       </c>
       <c r="C232" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D232" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>7</v>
       </c>
@@ -4540,10 +5245,13 @@
         <v>242</v>
       </c>
       <c r="C233" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D233" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>7</v>
       </c>
@@ -4551,10 +5259,13 @@
         <v>242</v>
       </c>
       <c r="C234" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D234" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>7</v>
       </c>
@@ -4562,10 +5273,13 @@
         <v>242</v>
       </c>
       <c r="C235" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D235" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>7</v>
       </c>
@@ -4573,10 +5287,13 @@
         <v>242</v>
       </c>
       <c r="C236" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D236" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>8</v>
       </c>
@@ -4584,10 +5301,13 @@
         <v>243</v>
       </c>
       <c r="C237" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D237" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>8</v>
       </c>
@@ -4595,10 +5315,13 @@
         <v>243</v>
       </c>
       <c r="C238" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D238" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>8</v>
       </c>
@@ -4606,10 +5329,13 @@
         <v>243</v>
       </c>
       <c r="C239" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D239" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>8</v>
       </c>
@@ -4617,10 +5343,13 @@
         <v>243</v>
       </c>
       <c r="C240" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D240" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>8</v>
       </c>
@@ -4628,10 +5357,13 @@
         <v>243</v>
       </c>
       <c r="C241" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D241" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" s="4">
         <v>1</v>
       </c>
@@ -4639,10 +5371,13 @@
         <v>246</v>
       </c>
       <c r="C242" t="s">
+        <v>449</v>
+      </c>
+      <c r="D242" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" s="4">
         <v>1</v>
       </c>
@@ -4650,10 +5385,13 @@
         <v>246</v>
       </c>
       <c r="C243" t="s">
+        <v>449</v>
+      </c>
+      <c r="D243" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" s="4">
         <v>1</v>
       </c>
@@ -4661,10 +5399,13 @@
         <v>246</v>
       </c>
       <c r="C244" t="s">
+        <v>449</v>
+      </c>
+      <c r="D244" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" s="4">
         <v>1</v>
       </c>
@@ -4672,10 +5413,13 @@
         <v>246</v>
       </c>
       <c r="C245" t="s">
+        <v>449</v>
+      </c>
+      <c r="D245" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" s="4">
         <v>1</v>
       </c>
@@ -4683,10 +5427,13 @@
         <v>246</v>
       </c>
       <c r="C246" t="s">
+        <v>449</v>
+      </c>
+      <c r="D246" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" s="4">
         <v>1</v>
       </c>
@@ -4694,10 +5441,13 @@
         <v>246</v>
       </c>
       <c r="C247" t="s">
+        <v>449</v>
+      </c>
+      <c r="D247" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" s="4">
         <v>1</v>
       </c>
@@ -4705,10 +5455,13 @@
         <v>246</v>
       </c>
       <c r="C248" t="s">
+        <v>449</v>
+      </c>
+      <c r="D248" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" s="4">
         <v>1</v>
       </c>
@@ -4716,10 +5469,13 @@
         <v>246</v>
       </c>
       <c r="C249" t="s">
+        <v>449</v>
+      </c>
+      <c r="D249" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" s="4">
         <v>1</v>
       </c>
@@ -4727,10 +5483,13 @@
         <v>246</v>
       </c>
       <c r="C250" t="s">
+        <v>449</v>
+      </c>
+      <c r="D250" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" s="4">
         <v>1</v>
       </c>
@@ -4738,10 +5497,13 @@
         <v>246</v>
       </c>
       <c r="C251" t="s">
+        <v>449</v>
+      </c>
+      <c r="D251" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" s="4">
         <v>1</v>
       </c>
@@ -4749,10 +5511,13 @@
         <v>246</v>
       </c>
       <c r="C252" t="s">
+        <v>449</v>
+      </c>
+      <c r="D252" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" s="4">
         <v>1</v>
       </c>
@@ -4760,10 +5525,13 @@
         <v>246</v>
       </c>
       <c r="C253" t="s">
+        <v>449</v>
+      </c>
+      <c r="D253" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" s="4">
         <v>1</v>
       </c>
@@ -4771,10 +5539,13 @@
         <v>246</v>
       </c>
       <c r="C254" t="s">
+        <v>449</v>
+      </c>
+      <c r="D254" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" s="4">
         <v>1</v>
       </c>
@@ -4782,10 +5553,13 @@
         <v>246</v>
       </c>
       <c r="C255" t="s">
+        <v>449</v>
+      </c>
+      <c r="D255" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" s="4">
         <v>1</v>
       </c>
@@ -4793,10 +5567,13 @@
         <v>246</v>
       </c>
       <c r="C256" t="s">
+        <v>449</v>
+      </c>
+      <c r="D256" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" s="4">
         <v>1</v>
       </c>
@@ -4804,10 +5581,13 @@
         <v>246</v>
       </c>
       <c r="C257" t="s">
+        <v>449</v>
+      </c>
+      <c r="D257" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" s="4">
         <v>1</v>
       </c>
@@ -4815,10 +5595,13 @@
         <v>246</v>
       </c>
       <c r="C258" t="s">
+        <v>449</v>
+      </c>
+      <c r="D258" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" s="4">
         <v>1</v>
       </c>
@@ -4826,10 +5609,13 @@
         <v>246</v>
       </c>
       <c r="C259" t="s">
+        <v>449</v>
+      </c>
+      <c r="D259" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" s="4">
         <v>1</v>
       </c>
@@ -4837,10 +5623,13 @@
         <v>246</v>
       </c>
       <c r="C260" t="s">
+        <v>449</v>
+      </c>
+      <c r="D260" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" s="4">
         <v>1</v>
       </c>
@@ -4848,10 +5637,13 @@
         <v>246</v>
       </c>
       <c r="C261" t="s">
+        <v>449</v>
+      </c>
+      <c r="D261" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" s="4">
         <v>1</v>
       </c>
@@ -4859,10 +5651,13 @@
         <v>246</v>
       </c>
       <c r="C262" t="s">
+        <v>449</v>
+      </c>
+      <c r="D262" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" s="4">
         <v>1</v>
       </c>
@@ -4870,10 +5665,13 @@
         <v>246</v>
       </c>
       <c r="C263" t="s">
+        <v>449</v>
+      </c>
+      <c r="D263" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" s="4">
         <v>1</v>
       </c>
@@ -4881,10 +5679,13 @@
         <v>246</v>
       </c>
       <c r="C264" t="s">
+        <v>449</v>
+      </c>
+      <c r="D264" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" s="4">
         <v>1</v>
       </c>
@@ -4892,10 +5693,13 @@
         <v>246</v>
       </c>
       <c r="C265" t="s">
+        <v>449</v>
+      </c>
+      <c r="D265" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" s="4">
         <v>1</v>
       </c>
@@ -4903,10 +5707,13 @@
         <v>246</v>
       </c>
       <c r="C266" t="s">
+        <v>449</v>
+      </c>
+      <c r="D266" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" s="4">
         <v>2</v>
       </c>
@@ -4914,10 +5721,13 @@
         <v>272</v>
       </c>
       <c r="C267" t="s">
+        <v>449</v>
+      </c>
+      <c r="D267" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" s="4">
         <v>2</v>
       </c>
@@ -4925,10 +5735,13 @@
         <v>272</v>
       </c>
       <c r="C268" t="s">
+        <v>449</v>
+      </c>
+      <c r="D268" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" s="4">
         <v>2</v>
       </c>
@@ -4936,10 +5749,13 @@
         <v>272</v>
       </c>
       <c r="C269" t="s">
+        <v>449</v>
+      </c>
+      <c r="D269" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" s="4">
         <v>2</v>
       </c>
@@ -4947,10 +5763,13 @@
         <v>272</v>
       </c>
       <c r="C270" t="s">
+        <v>449</v>
+      </c>
+      <c r="D270" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" s="4">
         <v>2</v>
       </c>
@@ -4958,10 +5777,13 @@
         <v>272</v>
       </c>
       <c r="C271" t="s">
+        <v>449</v>
+      </c>
+      <c r="D271" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" s="4">
         <v>2</v>
       </c>
@@ -4969,10 +5791,13 @@
         <v>272</v>
       </c>
       <c r="C272" t="s">
+        <v>449</v>
+      </c>
+      <c r="D272" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" s="4">
         <v>2</v>
       </c>
@@ -4980,10 +5805,13 @@
         <v>272</v>
       </c>
       <c r="C273" t="s">
+        <v>449</v>
+      </c>
+      <c r="D273" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" s="4">
         <v>2</v>
       </c>
@@ -4991,10 +5819,13 @@
         <v>272</v>
       </c>
       <c r="C274" t="s">
+        <v>449</v>
+      </c>
+      <c r="D274" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" s="4">
         <v>2</v>
       </c>
@@ -5002,10 +5833,13 @@
         <v>272</v>
       </c>
       <c r="C275" t="s">
+        <v>449</v>
+      </c>
+      <c r="D275" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" s="4">
         <v>2</v>
       </c>
@@ -5013,10 +5847,13 @@
         <v>272</v>
       </c>
       <c r="C276" t="s">
+        <v>449</v>
+      </c>
+      <c r="D276" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" s="4">
         <v>2</v>
       </c>
@@ -5024,10 +5861,13 @@
         <v>272</v>
       </c>
       <c r="C277" t="s">
+        <v>449</v>
+      </c>
+      <c r="D277" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" s="4">
         <v>2</v>
       </c>
@@ -5035,10 +5875,13 @@
         <v>272</v>
       </c>
       <c r="C278" t="s">
+        <v>449</v>
+      </c>
+      <c r="D278" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" s="4">
         <v>2</v>
       </c>
@@ -5046,10 +5889,13 @@
         <v>272</v>
       </c>
       <c r="C279" t="s">
+        <v>449</v>
+      </c>
+      <c r="D279" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" s="4">
         <v>2</v>
       </c>
@@ -5057,10 +5903,13 @@
         <v>272</v>
       </c>
       <c r="C280" t="s">
+        <v>449</v>
+      </c>
+      <c r="D280" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" s="4">
         <v>2</v>
       </c>
@@ -5068,10 +5917,13 @@
         <v>272</v>
       </c>
       <c r="C281" t="s">
+        <v>449</v>
+      </c>
+      <c r="D281" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" s="4">
         <v>2</v>
       </c>
@@ -5079,10 +5931,13 @@
         <v>272</v>
       </c>
       <c r="C282" t="s">
+        <v>449</v>
+      </c>
+      <c r="D282" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" s="4">
         <v>2</v>
       </c>
@@ -5090,10 +5945,13 @@
         <v>272</v>
       </c>
       <c r="C283" t="s">
+        <v>449</v>
+      </c>
+      <c r="D283" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" s="4">
         <v>2</v>
       </c>
@@ -5101,10 +5959,13 @@
         <v>272</v>
       </c>
       <c r="C284" t="s">
+        <v>449</v>
+      </c>
+      <c r="D284" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" s="4">
         <v>2</v>
       </c>
@@ -5112,10 +5973,13 @@
         <v>272</v>
       </c>
       <c r="C285" t="s">
+        <v>449</v>
+      </c>
+      <c r="D285" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" s="4">
         <v>2</v>
       </c>
@@ -5123,10 +5987,13 @@
         <v>272</v>
       </c>
       <c r="C286" t="s">
+        <v>449</v>
+      </c>
+      <c r="D286" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" s="4">
         <v>2</v>
       </c>
@@ -5134,10 +6001,13 @@
         <v>272</v>
       </c>
       <c r="C287" t="s">
+        <v>449</v>
+      </c>
+      <c r="D287" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" s="4">
         <v>3</v>
       </c>
@@ -5145,10 +6015,13 @@
         <v>294</v>
       </c>
       <c r="C288" t="s">
+        <v>449</v>
+      </c>
+      <c r="D288" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" s="4">
         <v>3</v>
       </c>
@@ -5156,10 +6029,13 @@
         <v>294</v>
       </c>
       <c r="C289" t="s">
+        <v>449</v>
+      </c>
+      <c r="D289" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" s="4">
         <v>3</v>
       </c>
@@ -5167,10 +6043,13 @@
         <v>294</v>
       </c>
       <c r="C290" t="s">
+        <v>449</v>
+      </c>
+      <c r="D290" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" s="4">
         <v>3</v>
       </c>
@@ -5178,10 +6057,13 @@
         <v>294</v>
       </c>
       <c r="C291" t="s">
+        <v>449</v>
+      </c>
+      <c r="D291" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" s="4">
         <v>3</v>
       </c>
@@ -5189,10 +6071,13 @@
         <v>294</v>
       </c>
       <c r="C292" t="s">
+        <v>449</v>
+      </c>
+      <c r="D292" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293" s="4">
         <v>3</v>
       </c>
@@ -5200,10 +6085,13 @@
         <v>294</v>
       </c>
       <c r="C293" t="s">
+        <v>449</v>
+      </c>
+      <c r="D293" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" s="4">
         <v>3</v>
       </c>
@@ -5211,10 +6099,13 @@
         <v>294</v>
       </c>
       <c r="C294" t="s">
+        <v>449</v>
+      </c>
+      <c r="D294" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295" s="4">
         <v>3</v>
       </c>
@@ -5222,10 +6113,13 @@
         <v>294</v>
       </c>
       <c r="C295" t="s">
+        <v>449</v>
+      </c>
+      <c r="D295" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296" s="4">
         <v>3</v>
       </c>
@@ -5233,10 +6127,13 @@
         <v>294</v>
       </c>
       <c r="C296" t="s">
+        <v>449</v>
+      </c>
+      <c r="D296" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297" s="4">
         <v>3</v>
       </c>
@@ -5244,10 +6141,13 @@
         <v>294</v>
       </c>
       <c r="C297" t="s">
+        <v>449</v>
+      </c>
+      <c r="D297" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" s="4">
         <v>3</v>
       </c>
@@ -5255,10 +6155,13 @@
         <v>294</v>
       </c>
       <c r="C298" t="s">
+        <v>449</v>
+      </c>
+      <c r="D298" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299" s="4">
         <v>3</v>
       </c>
@@ -5266,10 +6169,13 @@
         <v>294</v>
       </c>
       <c r="C299" t="s">
+        <v>449</v>
+      </c>
+      <c r="D299" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300" s="4">
         <v>3</v>
       </c>
@@ -5277,10 +6183,13 @@
         <v>294</v>
       </c>
       <c r="C300" t="s">
+        <v>449</v>
+      </c>
+      <c r="D300" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301" s="4">
         <v>3</v>
       </c>
@@ -5288,10 +6197,13 @@
         <v>294</v>
       </c>
       <c r="C301" t="s">
+        <v>449</v>
+      </c>
+      <c r="D301" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302" s="4">
         <v>3</v>
       </c>
@@ -5299,10 +6211,13 @@
         <v>294</v>
       </c>
       <c r="C302" t="s">
+        <v>449</v>
+      </c>
+      <c r="D302" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303" s="4">
         <v>3</v>
       </c>
@@ -5310,10 +6225,13 @@
         <v>294</v>
       </c>
       <c r="C303" t="s">
+        <v>449</v>
+      </c>
+      <c r="D303" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304" s="4">
         <v>3</v>
       </c>
@@ -5321,10 +6239,13 @@
         <v>294</v>
       </c>
       <c r="C304" t="s">
+        <v>449</v>
+      </c>
+      <c r="D304" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305" s="4">
         <v>3</v>
       </c>
@@ -5332,10 +6253,13 @@
         <v>294</v>
       </c>
       <c r="C305" t="s">
+        <v>449</v>
+      </c>
+      <c r="D305" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306" s="4">
         <v>3</v>
       </c>
@@ -5343,10 +6267,13 @@
         <v>294</v>
       </c>
       <c r="C306" t="s">
+        <v>449</v>
+      </c>
+      <c r="D306" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307" s="4">
         <v>3</v>
       </c>
@@ -5354,10 +6281,13 @@
         <v>294</v>
       </c>
       <c r="C307" t="s">
+        <v>449</v>
+      </c>
+      <c r="D307" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308" s="4">
         <v>3</v>
       </c>
@@ -5365,10 +6295,13 @@
         <v>294</v>
       </c>
       <c r="C308" t="s">
+        <v>449</v>
+      </c>
+      <c r="D308" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309" s="4">
         <v>3</v>
       </c>
@@ -5376,10 +6309,13 @@
         <v>294</v>
       </c>
       <c r="C309" t="s">
+        <v>449</v>
+      </c>
+      <c r="D309" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310" s="4">
         <v>3</v>
       </c>
@@ -5387,10 +6323,13 @@
         <v>294</v>
       </c>
       <c r="C310" t="s">
+        <v>449</v>
+      </c>
+      <c r="D310" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311" s="4">
         <v>3</v>
       </c>
@@ -5398,10 +6337,13 @@
         <v>294</v>
       </c>
       <c r="C311" t="s">
+        <v>449</v>
+      </c>
+      <c r="D311" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312" s="4">
         <v>3</v>
       </c>
@@ -5409,10 +6351,13 @@
         <v>294</v>
       </c>
       <c r="C312" t="s">
+        <v>449</v>
+      </c>
+      <c r="D312" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313" s="4">
         <v>3</v>
       </c>
@@ -5420,10 +6365,13 @@
         <v>294</v>
       </c>
       <c r="C313" t="s">
+        <v>449</v>
+      </c>
+      <c r="D313" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314" s="4">
         <v>3</v>
       </c>
@@ -5431,10 +6379,13 @@
         <v>294</v>
       </c>
       <c r="C314" t="s">
+        <v>449</v>
+      </c>
+      <c r="D314" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315" s="4">
         <v>3</v>
       </c>
@@ -5442,10 +6393,13 @@
         <v>294</v>
       </c>
       <c r="C315" t="s">
+        <v>449</v>
+      </c>
+      <c r="D315" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A316" s="4">
         <v>3</v>
       </c>
@@ -5453,10 +6407,13 @@
         <v>294</v>
       </c>
       <c r="C316" t="s">
+        <v>449</v>
+      </c>
+      <c r="D316" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A317" s="4">
         <v>4</v>
       </c>
@@ -5464,10 +6421,13 @@
         <v>324</v>
       </c>
       <c r="C317" t="s">
+        <v>449</v>
+      </c>
+      <c r="D317" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318" s="4">
         <v>4</v>
       </c>
@@ -5475,10 +6435,13 @@
         <v>324</v>
       </c>
       <c r="C318" t="s">
+        <v>449</v>
+      </c>
+      <c r="D318" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319" s="4">
         <v>4</v>
       </c>
@@ -5486,10 +6449,13 @@
         <v>324</v>
       </c>
       <c r="C319" t="s">
+        <v>449</v>
+      </c>
+      <c r="D319" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320" s="4">
         <v>4</v>
       </c>
@@ -5497,10 +6463,13 @@
         <v>324</v>
       </c>
       <c r="C320" t="s">
+        <v>449</v>
+      </c>
+      <c r="D320" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A321" s="4">
         <v>4</v>
       </c>
@@ -5508,10 +6477,13 @@
         <v>324</v>
       </c>
       <c r="C321" t="s">
+        <v>449</v>
+      </c>
+      <c r="D321" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A322" s="4">
         <v>4</v>
       </c>
@@ -5519,10 +6491,13 @@
         <v>324</v>
       </c>
       <c r="C322" t="s">
+        <v>449</v>
+      </c>
+      <c r="D322" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A323" s="4">
         <v>4</v>
       </c>
@@ -5530,10 +6505,13 @@
         <v>324</v>
       </c>
       <c r="C323" t="s">
+        <v>449</v>
+      </c>
+      <c r="D323" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A324" s="4">
         <v>4</v>
       </c>
@@ -5541,10 +6519,13 @@
         <v>324</v>
       </c>
       <c r="C324" t="s">
+        <v>449</v>
+      </c>
+      <c r="D324" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A325" s="4">
         <v>4</v>
       </c>
@@ -5552,10 +6533,13 @@
         <v>324</v>
       </c>
       <c r="C325" t="s">
+        <v>449</v>
+      </c>
+      <c r="D325" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A326" s="4">
         <v>4</v>
       </c>
@@ -5563,10 +6547,13 @@
         <v>324</v>
       </c>
       <c r="C326" t="s">
+        <v>449</v>
+      </c>
+      <c r="D326" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A327" s="4">
         <v>4</v>
       </c>
@@ -5574,10 +6561,13 @@
         <v>324</v>
       </c>
       <c r="C327" t="s">
+        <v>449</v>
+      </c>
+      <c r="D327" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328" s="4">
         <v>4</v>
       </c>
@@ -5585,10 +6575,13 @@
         <v>324</v>
       </c>
       <c r="C328" t="s">
+        <v>449</v>
+      </c>
+      <c r="D328" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A329" s="4">
         <v>4</v>
       </c>
@@ -5596,10 +6589,13 @@
         <v>324</v>
       </c>
       <c r="C329" t="s">
+        <v>449</v>
+      </c>
+      <c r="D329" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A330" s="4">
         <v>4</v>
       </c>
@@ -5607,10 +6603,13 @@
         <v>324</v>
       </c>
       <c r="C330" t="s">
+        <v>449</v>
+      </c>
+      <c r="D330" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A331" s="4">
         <v>4</v>
       </c>
@@ -5618,10 +6617,13 @@
         <v>324</v>
       </c>
       <c r="C331" t="s">
+        <v>449</v>
+      </c>
+      <c r="D331" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A332" s="4">
         <v>4</v>
       </c>
@@ -5629,10 +6631,13 @@
         <v>324</v>
       </c>
       <c r="C332" t="s">
+        <v>449</v>
+      </c>
+      <c r="D332" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A333" s="4">
         <v>4</v>
       </c>
@@ -5640,10 +6645,13 @@
         <v>324</v>
       </c>
       <c r="C333" t="s">
+        <v>449</v>
+      </c>
+      <c r="D333" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A334" s="4">
         <v>4</v>
       </c>
@@ -5651,10 +6659,13 @@
         <v>324</v>
       </c>
       <c r="C334" t="s">
+        <v>449</v>
+      </c>
+      <c r="D334" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A335" s="4">
         <v>4</v>
       </c>
@@ -5662,10 +6673,13 @@
         <v>324</v>
       </c>
       <c r="C335" t="s">
+        <v>449</v>
+      </c>
+      <c r="D335" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A336" s="4">
         <v>4</v>
       </c>
@@ -5673,10 +6687,13 @@
         <v>324</v>
       </c>
       <c r="C336" t="s">
+        <v>449</v>
+      </c>
+      <c r="D336" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A337" s="4">
         <v>4</v>
       </c>
@@ -5684,10 +6701,13 @@
         <v>324</v>
       </c>
       <c r="C337" t="s">
+        <v>449</v>
+      </c>
+      <c r="D337" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A338" s="4">
         <v>4</v>
       </c>
@@ -5695,10 +6715,13 @@
         <v>324</v>
       </c>
       <c r="C338" t="s">
+        <v>449</v>
+      </c>
+      <c r="D338" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A339" s="4">
         <v>4</v>
       </c>
@@ -5706,10 +6729,13 @@
         <v>324</v>
       </c>
       <c r="C339" t="s">
+        <v>449</v>
+      </c>
+      <c r="D339" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A340" s="4">
         <v>4</v>
       </c>
@@ -5717,10 +6743,13 @@
         <v>324</v>
       </c>
       <c r="C340" t="s">
+        <v>449</v>
+      </c>
+      <c r="D340" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A341" s="4">
         <v>4</v>
       </c>
@@ -5728,10 +6757,13 @@
         <v>324</v>
       </c>
       <c r="C341" t="s">
+        <v>449</v>
+      </c>
+      <c r="D341" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A342" s="4">
         <v>5</v>
       </c>
@@ -5739,10 +6771,13 @@
         <v>350</v>
       </c>
       <c r="C342" t="s">
+        <v>449</v>
+      </c>
+      <c r="D342" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A343" s="4">
         <v>5</v>
       </c>
@@ -5750,10 +6785,13 @@
         <v>350</v>
       </c>
       <c r="C343" t="s">
+        <v>449</v>
+      </c>
+      <c r="D343" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A344" s="4">
         <v>5</v>
       </c>
@@ -5761,10 +6799,13 @@
         <v>350</v>
       </c>
       <c r="C344" t="s">
+        <v>449</v>
+      </c>
+      <c r="D344" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A345" s="4">
         <v>5</v>
       </c>
@@ -5772,10 +6813,13 @@
         <v>350</v>
       </c>
       <c r="C345" t="s">
+        <v>449</v>
+      </c>
+      <c r="D345" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A346" s="4">
         <v>5</v>
       </c>
@@ -5783,10 +6827,13 @@
         <v>350</v>
       </c>
       <c r="C346" t="s">
+        <v>449</v>
+      </c>
+      <c r="D346" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347" s="4">
         <v>5</v>
       </c>
@@ -5794,10 +6841,13 @@
         <v>350</v>
       </c>
       <c r="C347" t="s">
+        <v>449</v>
+      </c>
+      <c r="D347" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348" s="4">
         <v>5</v>
       </c>
@@ -5805,10 +6855,13 @@
         <v>350</v>
       </c>
       <c r="C348" t="s">
+        <v>449</v>
+      </c>
+      <c r="D348" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349" s="4">
         <v>5</v>
       </c>
@@ -5816,10 +6869,13 @@
         <v>350</v>
       </c>
       <c r="C349" t="s">
+        <v>449</v>
+      </c>
+      <c r="D349" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350" s="4">
         <v>5</v>
       </c>
@@ -5827,10 +6883,13 @@
         <v>350</v>
       </c>
       <c r="C350" t="s">
+        <v>449</v>
+      </c>
+      <c r="D350" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351" s="4">
         <v>5</v>
       </c>
@@ -5838,10 +6897,13 @@
         <v>350</v>
       </c>
       <c r="C351" t="s">
+        <v>449</v>
+      </c>
+      <c r="D351" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352" s="4">
         <v>5</v>
       </c>
@@ -5849,10 +6911,13 @@
         <v>350</v>
       </c>
       <c r="C352" t="s">
+        <v>449</v>
+      </c>
+      <c r="D352" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353" s="4">
         <v>5</v>
       </c>
@@ -5860,10 +6925,13 @@
         <v>350</v>
       </c>
       <c r="C353" t="s">
+        <v>449</v>
+      </c>
+      <c r="D353" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354" s="4">
         <v>5</v>
       </c>
@@ -5871,10 +6939,13 @@
         <v>350</v>
       </c>
       <c r="C354" t="s">
+        <v>449</v>
+      </c>
+      <c r="D354" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355" s="4">
         <v>5</v>
       </c>
@@ -5882,10 +6953,13 @@
         <v>350</v>
       </c>
       <c r="C355" t="s">
+        <v>449</v>
+      </c>
+      <c r="D355" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356" s="4">
         <v>5</v>
       </c>
@@ -5893,10 +6967,13 @@
         <v>350</v>
       </c>
       <c r="C356" t="s">
+        <v>449</v>
+      </c>
+      <c r="D356" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357" s="4">
         <v>5</v>
       </c>
@@ -5904,10 +6981,13 @@
         <v>350</v>
       </c>
       <c r="C357" t="s">
+        <v>449</v>
+      </c>
+      <c r="D357" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358" s="4">
         <v>5</v>
       </c>
@@ -5915,10 +6995,13 @@
         <v>350</v>
       </c>
       <c r="C358" t="s">
+        <v>449</v>
+      </c>
+      <c r="D358" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359" s="4">
         <v>5</v>
       </c>
@@ -5926,10 +7009,13 @@
         <v>350</v>
       </c>
       <c r="C359" t="s">
+        <v>449</v>
+      </c>
+      <c r="D359" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360" s="4">
         <v>5</v>
       </c>
@@ -5937,10 +7023,13 @@
         <v>350</v>
       </c>
       <c r="C360" t="s">
+        <v>449</v>
+      </c>
+      <c r="D360" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361" s="4">
         <v>5</v>
       </c>
@@ -5948,10 +7037,13 @@
         <v>350</v>
       </c>
       <c r="C361" t="s">
+        <v>449</v>
+      </c>
+      <c r="D361" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362" s="4">
         <v>6</v>
       </c>
@@ -5959,10 +7051,13 @@
         <v>371</v>
       </c>
       <c r="C362" t="s">
+        <v>449</v>
+      </c>
+      <c r="D362" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363" s="4">
         <v>6</v>
       </c>
@@ -5970,10 +7065,13 @@
         <v>371</v>
       </c>
       <c r="C363" t="s">
+        <v>449</v>
+      </c>
+      <c r="D363" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364" s="4">
         <v>6</v>
       </c>
@@ -5981,10 +7079,13 @@
         <v>371</v>
       </c>
       <c r="C364" t="s">
+        <v>449</v>
+      </c>
+      <c r="D364" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365" s="4">
         <v>6</v>
       </c>
@@ -5992,10 +7093,13 @@
         <v>371</v>
       </c>
       <c r="C365" t="s">
+        <v>449</v>
+      </c>
+      <c r="D365" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366" s="4">
         <v>6</v>
       </c>
@@ -6003,10 +7107,13 @@
         <v>371</v>
       </c>
       <c r="C366" t="s">
+        <v>449</v>
+      </c>
+      <c r="D366" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367" s="4">
         <v>6</v>
       </c>
@@ -6014,10 +7121,13 @@
         <v>371</v>
       </c>
       <c r="C367" t="s">
+        <v>449</v>
+      </c>
+      <c r="D367" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368" s="4">
         <v>6</v>
       </c>
@@ -6025,10 +7135,13 @@
         <v>371</v>
       </c>
       <c r="C368" t="s">
+        <v>449</v>
+      </c>
+      <c r="D368" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369" s="4">
         <v>6</v>
       </c>
@@ -6036,10 +7149,13 @@
         <v>371</v>
       </c>
       <c r="C369" t="s">
+        <v>449</v>
+      </c>
+      <c r="D369" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370" s="4">
         <v>6</v>
       </c>
@@ -6047,10 +7163,13 @@
         <v>371</v>
       </c>
       <c r="C370" t="s">
+        <v>449</v>
+      </c>
+      <c r="D370" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371" s="4">
         <v>6</v>
       </c>
@@ -6058,10 +7177,13 @@
         <v>371</v>
       </c>
       <c r="C371" t="s">
+        <v>449</v>
+      </c>
+      <c r="D371" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372" s="4">
         <v>6</v>
       </c>
@@ -6069,10 +7191,13 @@
         <v>371</v>
       </c>
       <c r="C372" t="s">
+        <v>449</v>
+      </c>
+      <c r="D372" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373" s="4">
         <v>6</v>
       </c>
@@ -6080,10 +7205,13 @@
         <v>371</v>
       </c>
       <c r="C373" t="s">
+        <v>449</v>
+      </c>
+      <c r="D373" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374" s="4">
         <v>6</v>
       </c>
@@ -6091,10 +7219,13 @@
         <v>371</v>
       </c>
       <c r="C374" t="s">
+        <v>449</v>
+      </c>
+      <c r="D374" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A375" s="4">
         <v>6</v>
       </c>
@@ -6102,10 +7233,13 @@
         <v>371</v>
       </c>
       <c r="C375" t="s">
+        <v>449</v>
+      </c>
+      <c r="D375" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A376" s="4">
         <v>6</v>
       </c>
@@ -6113,10 +7247,13 @@
         <v>371</v>
       </c>
       <c r="C376" t="s">
+        <v>449</v>
+      </c>
+      <c r="D376" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377" s="4">
         <v>6</v>
       </c>
@@ -6124,10 +7261,13 @@
         <v>371</v>
       </c>
       <c r="C377" t="s">
+        <v>449</v>
+      </c>
+      <c r="D377" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A378" s="4">
         <v>6</v>
       </c>
@@ -6135,10 +7275,13 @@
         <v>371</v>
       </c>
       <c r="C378" t="s">
+        <v>449</v>
+      </c>
+      <c r="D378" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A379" s="4">
         <v>6</v>
       </c>
@@ -6146,10 +7289,13 @@
         <v>371</v>
       </c>
       <c r="C379" t="s">
+        <v>449</v>
+      </c>
+      <c r="D379" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380" s="4">
         <v>6</v>
       </c>
@@ -6157,10 +7303,13 @@
         <v>371</v>
       </c>
       <c r="C380" t="s">
+        <v>449</v>
+      </c>
+      <c r="D380" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A381" s="4">
         <v>6</v>
       </c>
@@ -6168,10 +7317,13 @@
         <v>371</v>
       </c>
       <c r="C381" t="s">
+        <v>449</v>
+      </c>
+      <c r="D381" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382" s="4">
         <v>6</v>
       </c>
@@ -6179,10 +7331,13 @@
         <v>371</v>
       </c>
       <c r="C382" t="s">
+        <v>449</v>
+      </c>
+      <c r="D382" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A383" s="4">
         <v>6</v>
       </c>
@@ -6190,10 +7345,13 @@
         <v>371</v>
       </c>
       <c r="C383" t="s">
+        <v>449</v>
+      </c>
+      <c r="D383" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A384" s="4">
         <v>6</v>
       </c>
@@ -6201,10 +7359,13 @@
         <v>371</v>
       </c>
       <c r="C384" t="s">
+        <v>449</v>
+      </c>
+      <c r="D384" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385" s="4">
         <v>6</v>
       </c>
@@ -6212,10 +7373,13 @@
         <v>371</v>
       </c>
       <c r="C385" t="s">
+        <v>449</v>
+      </c>
+      <c r="D385" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A386" s="4">
         <v>6</v>
       </c>
@@ -6223,10 +7387,13 @@
         <v>371</v>
       </c>
       <c r="C386" t="s">
+        <v>449</v>
+      </c>
+      <c r="D386" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A387" s="4">
         <v>7</v>
       </c>
@@ -6234,10 +7401,13 @@
         <v>397</v>
       </c>
       <c r="C387" t="s">
+        <v>449</v>
+      </c>
+      <c r="D387" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A388" s="4">
         <v>7</v>
       </c>
@@ -6245,10 +7415,13 @@
         <v>397</v>
       </c>
       <c r="C388" t="s">
+        <v>449</v>
+      </c>
+      <c r="D388" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A389" s="4">
         <v>7</v>
       </c>
@@ -6256,10 +7429,13 @@
         <v>397</v>
       </c>
       <c r="C389" t="s">
+        <v>449</v>
+      </c>
+      <c r="D389" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A390" s="4">
         <v>7</v>
       </c>
@@ -6267,10 +7443,13 @@
         <v>397</v>
       </c>
       <c r="C390" t="s">
+        <v>449</v>
+      </c>
+      <c r="D390" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A391" s="4">
         <v>7</v>
       </c>
@@ -6278,10 +7457,13 @@
         <v>397</v>
       </c>
       <c r="C391" t="s">
+        <v>449</v>
+      </c>
+      <c r="D391" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A392" s="4">
         <v>7</v>
       </c>
@@ -6289,10 +7471,13 @@
         <v>397</v>
       </c>
       <c r="C392" t="s">
+        <v>449</v>
+      </c>
+      <c r="D392" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A393" s="4">
         <v>7</v>
       </c>
@@ -6300,10 +7485,13 @@
         <v>397</v>
       </c>
       <c r="C393" t="s">
+        <v>449</v>
+      </c>
+      <c r="D393" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A394" s="4">
         <v>7</v>
       </c>
@@ -6311,10 +7499,13 @@
         <v>397</v>
       </c>
       <c r="C394" t="s">
+        <v>449</v>
+      </c>
+      <c r="D394" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A395" s="4">
         <v>7</v>
       </c>
@@ -6322,10 +7513,13 @@
         <v>397</v>
       </c>
       <c r="C395" t="s">
+        <v>449</v>
+      </c>
+      <c r="D395" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A396" s="4">
         <v>7</v>
       </c>
@@ -6333,10 +7527,13 @@
         <v>397</v>
       </c>
       <c r="C396" t="s">
+        <v>449</v>
+      </c>
+      <c r="D396" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A397" s="4">
         <v>7</v>
       </c>
@@ -6344,10 +7541,13 @@
         <v>397</v>
       </c>
       <c r="C397" t="s">
+        <v>449</v>
+      </c>
+      <c r="D397" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A398" s="4">
         <v>7</v>
       </c>
@@ -6355,10 +7555,13 @@
         <v>397</v>
       </c>
       <c r="C398" t="s">
+        <v>449</v>
+      </c>
+      <c r="D398" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A399" s="4">
         <v>7</v>
       </c>
@@ -6366,10 +7569,13 @@
         <v>397</v>
       </c>
       <c r="C399" t="s">
+        <v>449</v>
+      </c>
+      <c r="D399" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A400" s="4">
         <v>7</v>
       </c>
@@ -6377,10 +7583,13 @@
         <v>397</v>
       </c>
       <c r="C400" t="s">
+        <v>449</v>
+      </c>
+      <c r="D400" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401" s="4">
         <v>7</v>
       </c>
@@ -6388,10 +7597,13 @@
         <v>397</v>
       </c>
       <c r="C401" t="s">
+        <v>449</v>
+      </c>
+      <c r="D401" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" s="4">
         <v>7</v>
       </c>
@@ -6399,10 +7611,13 @@
         <v>397</v>
       </c>
       <c r="C402" t="s">
+        <v>449</v>
+      </c>
+      <c r="D402" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="4">
         <v>7</v>
       </c>
@@ -6410,10 +7625,13 @@
         <v>397</v>
       </c>
       <c r="C403" t="s">
+        <v>449</v>
+      </c>
+      <c r="D403" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" s="4">
         <v>7</v>
       </c>
@@ -6421,10 +7639,13 @@
         <v>397</v>
       </c>
       <c r="C404" t="s">
+        <v>449</v>
+      </c>
+      <c r="D404" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" s="4">
         <v>7</v>
       </c>
@@ -6432,10 +7653,13 @@
         <v>397</v>
       </c>
       <c r="C405" t="s">
+        <v>449</v>
+      </c>
+      <c r="D405" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" s="4">
         <v>7</v>
       </c>
@@ -6443,10 +7667,13 @@
         <v>397</v>
       </c>
       <c r="C406" t="s">
+        <v>449</v>
+      </c>
+      <c r="D406" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" s="4">
         <v>7</v>
       </c>
@@ -6454,10 +7681,13 @@
         <v>397</v>
       </c>
       <c r="C407" t="s">
+        <v>449</v>
+      </c>
+      <c r="D407" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" s="4">
         <v>7</v>
       </c>
@@ -6465,10 +7695,13 @@
         <v>397</v>
       </c>
       <c r="C408" t="s">
+        <v>449</v>
+      </c>
+      <c r="D408" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" s="4">
         <v>7</v>
       </c>
@@ -6476,10 +7709,13 @@
         <v>397</v>
       </c>
       <c r="C409" t="s">
+        <v>449</v>
+      </c>
+      <c r="D409" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" s="4">
         <v>7</v>
       </c>
@@ -6487,10 +7723,13 @@
         <v>397</v>
       </c>
       <c r="C410" t="s">
+        <v>449</v>
+      </c>
+      <c r="D410" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" s="4">
         <v>7</v>
       </c>
@@ -6498,10 +7737,13 @@
         <v>397</v>
       </c>
       <c r="C411" t="s">
+        <v>449</v>
+      </c>
+      <c r="D411" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" s="4">
         <v>8</v>
       </c>
@@ -6509,10 +7751,13 @@
         <v>423</v>
       </c>
       <c r="C412" t="s">
+        <v>449</v>
+      </c>
+      <c r="D412" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413" s="4">
         <v>8</v>
       </c>
@@ -6520,10 +7765,13 @@
         <v>423</v>
       </c>
       <c r="C413" t="s">
+        <v>449</v>
+      </c>
+      <c r="D413" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" s="4">
         <v>8</v>
       </c>
@@ -6531,10 +7779,13 @@
         <v>423</v>
       </c>
       <c r="C414" t="s">
+        <v>449</v>
+      </c>
+      <c r="D414" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" s="4">
         <v>8</v>
       </c>
@@ -6542,10 +7793,13 @@
         <v>423</v>
       </c>
       <c r="C415" t="s">
+        <v>449</v>
+      </c>
+      <c r="D415" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" s="4">
         <v>8</v>
       </c>
@@ -6553,10 +7807,13 @@
         <v>423</v>
       </c>
       <c r="C416" t="s">
+        <v>449</v>
+      </c>
+      <c r="D416" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" s="4">
         <v>8</v>
       </c>
@@ -6564,10 +7821,13 @@
         <v>423</v>
       </c>
       <c r="C417" t="s">
+        <v>449</v>
+      </c>
+      <c r="D417" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="4">
         <v>8</v>
       </c>
@@ -6575,10 +7835,13 @@
         <v>423</v>
       </c>
       <c r="C418" t="s">
+        <v>449</v>
+      </c>
+      <c r="D418" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A419" s="4">
         <v>8</v>
       </c>
@@ -6586,10 +7849,13 @@
         <v>423</v>
       </c>
       <c r="C419" t="s">
+        <v>449</v>
+      </c>
+      <c r="D419" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A420" s="4">
         <v>8</v>
       </c>
@@ -6597,10 +7863,13 @@
         <v>423</v>
       </c>
       <c r="C420" t="s">
+        <v>449</v>
+      </c>
+      <c r="D420" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A421" s="4">
         <v>8</v>
       </c>
@@ -6608,10 +7877,13 @@
         <v>423</v>
       </c>
       <c r="C421" t="s">
+        <v>449</v>
+      </c>
+      <c r="D421" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422" s="4">
         <v>8</v>
       </c>
@@ -6619,10 +7891,13 @@
         <v>423</v>
       </c>
       <c r="C422" t="s">
+        <v>449</v>
+      </c>
+      <c r="D422" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423" s="4">
         <v>8</v>
       </c>
@@ -6630,10 +7905,13 @@
         <v>423</v>
       </c>
       <c r="C423" t="s">
+        <v>449</v>
+      </c>
+      <c r="D423" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424" s="4">
         <v>8</v>
       </c>
@@ -6641,10 +7919,13 @@
         <v>423</v>
       </c>
       <c r="C424" t="s">
+        <v>449</v>
+      </c>
+      <c r="D424" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425" s="4">
         <v>8</v>
       </c>
@@ -6652,10 +7933,13 @@
         <v>423</v>
       </c>
       <c r="C425" t="s">
+        <v>449</v>
+      </c>
+      <c r="D425" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426" s="4">
         <v>8</v>
       </c>
@@ -6663,10 +7947,13 @@
         <v>423</v>
       </c>
       <c r="C426" t="s">
+        <v>449</v>
+      </c>
+      <c r="D426" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427" s="4">
         <v>8</v>
       </c>
@@ -6674,10 +7961,13 @@
         <v>423</v>
       </c>
       <c r="C427" t="s">
+        <v>449</v>
+      </c>
+      <c r="D427" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428" s="4">
         <v>8</v>
       </c>
@@ -6685,10 +7975,13 @@
         <v>423</v>
       </c>
       <c r="C428" t="s">
+        <v>449</v>
+      </c>
+      <c r="D428" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429" s="4">
         <v>8</v>
       </c>
@@ -6696,10 +7989,13 @@
         <v>423</v>
       </c>
       <c r="C429" t="s">
+        <v>449</v>
+      </c>
+      <c r="D429" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430" s="4">
         <v>8</v>
       </c>
@@ -6707,10 +8003,13 @@
         <v>423</v>
       </c>
       <c r="C430" t="s">
+        <v>449</v>
+      </c>
+      <c r="D430" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431" s="4">
         <v>8</v>
       </c>
@@ -6718,10 +8017,13 @@
         <v>423</v>
       </c>
       <c r="C431" t="s">
+        <v>449</v>
+      </c>
+      <c r="D431" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432" s="4">
         <v>8</v>
       </c>
@@ -6729,10 +8031,13 @@
         <v>423</v>
       </c>
       <c r="C432" t="s">
+        <v>449</v>
+      </c>
+      <c r="D432" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433" s="4">
         <v>8</v>
       </c>
@@ -6740,10 +8045,13 @@
         <v>423</v>
       </c>
       <c r="C433" t="s">
+        <v>449</v>
+      </c>
+      <c r="D433" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" s="4">
         <v>8</v>
       </c>
@@ -6751,10 +8059,13 @@
         <v>423</v>
       </c>
       <c r="C434" t="s">
+        <v>449</v>
+      </c>
+      <c r="D434" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" s="4">
         <v>8</v>
       </c>
@@ -6762,10 +8073,13 @@
         <v>423</v>
       </c>
       <c r="C435" t="s">
+        <v>449</v>
+      </c>
+      <c r="D435" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" s="4">
         <v>8</v>
       </c>
@@ -6773,6 +8087,9 @@
         <v>423</v>
       </c>
       <c r="C436" t="s">
+        <v>449</v>
+      </c>
+      <c r="D436" t="s">
         <v>448</v>
       </c>
     </row>
